--- a/scripts/monthly_production_05-2019 vs monthly_production_06-2019.xlsx
+++ b/scripts/monthly_production_05-2019 vs monthly_production_06-2019.xlsx
@@ -26942,7 +26942,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:ZZ1000">
+  <conditionalFormatting sqref="A1:ZZ1072">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="→">
       <formula>NOT(ISERROR(SEARCH("→",A1)))</formula>
     </cfRule>

--- a/scripts/monthly_production_05-2019 vs monthly_production_06-2019.xlsx
+++ b/scripts/monthly_production_05-2019 vs monthly_production_06-2019.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13447" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12850" uniqueCount="25">
   <si>
     <t>Month</t>
   </si>
@@ -91,1797 +91,6 @@
   </si>
   <si>
     <t>Coal Prod Vol (ton)</t>
-  </si>
-  <si>
-    <t>248490856.813194→248400296.794714</t>
-  </si>
-  <si>
-    <t>42606099.452758→42599201.986758</t>
-  </si>
-  <si>
-    <t>312660128.61926806→312660016.86926806</t>
-  </si>
-  <si>
-    <t>235859125.210757→235770383.197717</t>
-  </si>
-  <si>
-    <t>40962499.657819994→40956063.14062</t>
-  </si>
-  <si>
-    <t>295539278.09455895→295539166.34455895</t>
-  </si>
-  <si>
-    <t>247274634.27610102→247177565.025781</t>
-  </si>
-  <si>
-    <t>42829108.095036→42822573.133196004</t>
-  </si>
-  <si>
-    <t>330378707.810903→330378607.060903</t>
-  </si>
-  <si>
-    <t>216578008.892304→216495712.579584</t>
-  </si>
-  <si>
-    <t>41473344.154664→41467616.603544004</t>
-  </si>
-  <si>
-    <t>320365373.7684159→320365274.7684159</t>
-  </si>
-  <si>
-    <t>215879010.90928698→215807068.580967</t>
-  </si>
-  <si>
-    <t>42487376.692673→42482210.892193004</t>
-  </si>
-  <si>
-    <t>328688163.513044→328688068.763044</t>
-  </si>
-  <si>
-    <t>227474810.576118→227376555.056598</t>
-  </si>
-  <si>
-    <t>42245273.328116→42239693.663076</t>
-  </si>
-  <si>
-    <t>318546837.1058022→318546755.8558022</t>
-  </si>
-  <si>
-    <t>238496588.337223→238394831.525783</t>
-  </si>
-  <si>
-    <t>44768935.567352004→44763308.778232</t>
-  </si>
-  <si>
-    <t>333959922.863913→333959816.363913</t>
-  </si>
-  <si>
-    <t>219912312.111442→219812953.701202</t>
-  </si>
-  <si>
-    <t>41929188.991692→41923938.152732</t>
-  </si>
-  <si>
-    <t>333048372.27936→333048280.27936</t>
-  </si>
-  <si>
-    <t>69750474.379355→69647740.126715</t>
-  </si>
-  <si>
-    <t>9582637.393786→9577186.757226</t>
-  </si>
-  <si>
-    <t>307716137.09975183→307716035.09975183</t>
-  </si>
-  <si>
-    <t>141886453.076457→141790529.763977</t>
-  </si>
-  <si>
-    <t>27187007.154411→27181924.174651</t>
-  </si>
-  <si>
-    <t>335787416.00840497→335787315.50840497</t>
-  </si>
-  <si>
-    <t>165714441.365757→165603446.149677</t>
-  </si>
-  <si>
-    <t>34897914.521487005→34892543.226287</t>
-  </si>
-  <si>
-    <t>333842803.526932→333842720.026932</t>
-  </si>
-  <si>
-    <t>182939915.23923→182831320.34331</t>
-  </si>
-  <si>
-    <t>39386553.922357→39381348.129157</t>
-  </si>
-  <si>
-    <t>339550360.57809407→339550274.57809407</t>
-  </si>
-  <si>
-    <t>203622290.421491→203532279.172451</t>
-  </si>
-  <si>
-    <t>41973018.682365→41968432.089085</t>
-  </si>
-  <si>
-    <t>344852890.584554→344852735.584554</t>
-  </si>
-  <si>
-    <t>191804668.345975→191727943.962695</t>
-  </si>
-  <si>
-    <t>39012663.861062996→39008617.538023</t>
-  </si>
-  <si>
-    <t>317362492.3124559→317364089.8124559</t>
-  </si>
-  <si>
-    <t>8022838.2536849985→8022845.2536849985</t>
-  </si>
-  <si>
-    <t>213281410.18350402→213188631.136784</t>
-  </si>
-  <si>
-    <t>43427740.261429→43423086.086229</t>
-  </si>
-  <si>
-    <t>348465708.66177→348488403.66177</t>
-  </si>
-  <si>
-    <t>8757879.376167998→8757987.876167998</t>
-  </si>
-  <si>
-    <t>207810779.271405→207718686.840525</t>
-  </si>
-  <si>
-    <t>46010002.846094→46005495.341854</t>
-  </si>
-  <si>
-    <t>331667322.145058→331688578.645058</t>
-  </si>
-  <si>
-    <t>8441208.671572004→8441291.671572004</t>
-  </si>
-  <si>
-    <t>211607983.538652→211512188.710172</t>
-  </si>
-  <si>
-    <t>50184695.723481→50180148.764361</t>
-  </si>
-  <si>
-    <t>338813613.7126591→338836332.9626591</t>
-  </si>
-  <si>
-    <t>8681356.557858→8681460.557858</t>
-  </si>
-  <si>
-    <t>217591315.806977→217496773.747297</t>
-  </si>
-  <si>
-    <t>48912541.207619004→48907993.657539</t>
-  </si>
-  <si>
-    <t>324421326.1267399→324440210.3767399</t>
-  </si>
-  <si>
-    <t>8389179.188412→8389266.188412</t>
-  </si>
-  <si>
-    <t>23403686.584045004→23403674.959045004</t>
-  </si>
-  <si>
-    <t>230853923.087915→230755180.132635</t>
-  </si>
-  <si>
-    <t>55929869.607267→55925638.652387</t>
-  </si>
-  <si>
-    <t>319839782.186672→319856820.686672</t>
-  </si>
-  <si>
-    <t>8502519.242322→8502606.242322</t>
-  </si>
-  <si>
-    <t>217192784.790857→217092120.531657</t>
-  </si>
-  <si>
-    <t>55888406.773954004→55884224.304354005</t>
-  </si>
-  <si>
-    <t>331219116.294135→331234425.294135</t>
-  </si>
-  <si>
-    <t>8556320.272793999→8556383.272793999</t>
-  </si>
-  <si>
-    <t>206509297.647628→206471069.666988</t>
-  </si>
-  <si>
-    <t>54475256.436296→54473595.500056006</t>
-  </si>
-  <si>
-    <t>309654310.83947796→309667437.58947796</t>
-  </si>
-  <si>
-    <t>8359864.864473002→8359913.364473002</t>
-  </si>
-  <si>
-    <t>215160065.975171→215060894.321571</t>
-  </si>
-  <si>
-    <t>55603912.975416005→55599926.598296</t>
-  </si>
-  <si>
-    <t>337866468.04064→337879491.79064</t>
-  </si>
-  <si>
-    <t>8702033.180471003→8702089.180471003</t>
-  </si>
-  <si>
-    <t>200249926.819651→200143475.402051</t>
-  </si>
-  <si>
-    <t>48913661.502986→48909581.196426</t>
-  </si>
-  <si>
-    <t>333990733.868343→334001647.618343</t>
-  </si>
-  <si>
-    <t>8584569.558272997→8584619.558272997</t>
-  </si>
-  <si>
-    <t>207451176.24919→207337255.76119</t>
-  </si>
-  <si>
-    <t>54072782.797224→54068445.496104</t>
-  </si>
-  <si>
-    <t>335530432.1600971→335541701.4100971</t>
-  </si>
-  <si>
-    <t>8650742.952667→8650791.952667</t>
-  </si>
-  <si>
-    <t>210471484.695643→210355483.304683</t>
-  </si>
-  <si>
-    <t>53337666.879392→53333353.435792</t>
-  </si>
-  <si>
-    <t>335257262.92170393→335268138.17170393</t>
-  </si>
-  <si>
-    <t>8665947.165225003→8665983.665225003</t>
-  </si>
-  <si>
-    <t>195269189.41332301→195164307.439403</t>
-  </si>
-  <si>
-    <t>49717832.704329→49713901.445849</t>
-  </si>
-  <si>
-    <t>302664532.23423296→302672916.23423296</t>
-  </si>
-  <si>
-    <t>8036994.989159999→8037029.489159999</t>
-  </si>
-  <si>
-    <t>217243848.194092→217129273.028652</t>
-  </si>
-  <si>
-    <t>51703864.234779→51699886.403339</t>
-  </si>
-  <si>
-    <t>335918712.4057911→335927467.1557911</t>
-  </si>
-  <si>
-    <t>9117148.211203996→9117187.211203996</t>
-  </si>
-  <si>
-    <t>201047323.100535→200962353.244935</t>
-  </si>
-  <si>
-    <t>46379119.650842994→46376149.711642995</t>
-  </si>
-  <si>
-    <t>327320157.231284→327327807.231284</t>
-  </si>
-  <si>
-    <t>8721027.819855003→8721054.319855003</t>
-  </si>
-  <si>
-    <t>200016321.862607→199927129.923167</t>
-  </si>
-  <si>
-    <t>49630048.97573→49626771.37877</t>
-  </si>
-  <si>
-    <t>334302782.3723001→334311802.3723001</t>
-  </si>
-  <si>
-    <t>9178791.252531001→9178828.752531001</t>
-  </si>
-  <si>
-    <t>185289258.415905→185198424.982145</t>
-  </si>
-  <si>
-    <t>48245513.190952→48242226.224952005</t>
-  </si>
-  <si>
-    <t>310790706.858651→310798581.858651</t>
-  </si>
-  <si>
-    <t>8799734.380300999→8799769.380300999</t>
-  </si>
-  <si>
-    <t>185138750.926797→185063544.533837</t>
-  </si>
-  <si>
-    <t>46380541.184477→46378029.345517</t>
-  </si>
-  <si>
-    <t>328194345.61791205→328201783.86791205</t>
-  </si>
-  <si>
-    <t>9196602.374553999→9196634.874553999</t>
-  </si>
-  <si>
-    <t>194095848.635621→194060191.868821</t>
-  </si>
-  <si>
-    <t>49995351.742358→49994159.105398</t>
-  </si>
-  <si>
-    <t>330415042.90287405→330407469.15287405</t>
-  </si>
-  <si>
-    <t>9204659.5333→9204630.5333</t>
-  </si>
-  <si>
-    <t>183417239.476648→183318037.000168</t>
-  </si>
-  <si>
-    <t>49465132.289098→49461956.881738</t>
-  </si>
-  <si>
-    <t>319265719.52680296→319272558.02680296</t>
-  </si>
-  <si>
-    <t>8921396.548557→8921420.548557</t>
-  </si>
-  <si>
-    <t>188896511.008504→188789221.012024</t>
-  </si>
-  <si>
-    <t>50408366.943252996→50405068.576372996</t>
-  </si>
-  <si>
-    <t>327800330.5705249→327806871.0705249</t>
-  </si>
-  <si>
-    <t>9322636.839633→9322656.339633</t>
-  </si>
-  <si>
-    <t>175361858.661253→175276187.754453</t>
-  </si>
-  <si>
-    <t>46258416.045701005→46255610.307061</t>
-  </si>
-  <si>
-    <t>321450180.18087703→321456499.18087703</t>
-  </si>
-  <si>
-    <t>9098983.942017→9099011.942017</t>
-  </si>
-  <si>
-    <t>186383233.534773→186272949.641973</t>
-  </si>
-  <si>
-    <t>48152607.49216→48149277.71808</t>
-  </si>
-  <si>
-    <t>332070001.12164116→332064290.12164116</t>
-  </si>
-  <si>
-    <t>9183884.023333002→9183866.523333002</t>
-  </si>
-  <si>
-    <t>185255391.811748→185166665.276548</t>
-  </si>
-  <si>
-    <t>50133615.800232→50130915.670792</t>
-  </si>
-  <si>
-    <t>318850146.1498969→318855304.6498969</t>
-  </si>
-  <si>
-    <t>9146041.077735005→9146056.577735005</t>
-  </si>
-  <si>
-    <t>158513541.302266→158410348.863066</t>
-  </si>
-  <si>
-    <t>41099196.057560995→41096304.496920995</t>
-  </si>
-  <si>
-    <t>287392450.4427849→287398131.4427849</t>
-  </si>
-  <si>
-    <t>8116611.137971999→8116629.637971999</t>
-  </si>
-  <si>
-    <t>175605933.278979→175490368.468019</t>
-  </si>
-  <si>
-    <t>44887139.555411→44883969.048371</t>
-  </si>
-  <si>
-    <t>325015987.57165796→325021512.07165796</t>
-  </si>
-  <si>
-    <t>9492101.062652003→9492130.562652003</t>
-  </si>
-  <si>
-    <t>167609936.115742→167501233.605342</t>
-  </si>
-  <si>
-    <t>42223263.213903→42220360.531263</t>
-  </si>
-  <si>
-    <t>318088454.79589695→318093886.79589695</t>
-  </si>
-  <si>
-    <t>9323222.097443003→9323241.097443003</t>
-  </si>
-  <si>
-    <t>169731951.373254→169623699.825094</t>
-  </si>
-  <si>
-    <t>44365958.389513→44363215.843753</t>
-  </si>
-  <si>
-    <t>327718710.756177→327713065.756177</t>
-  </si>
-  <si>
-    <t>9686104.658300001→9686087.158300001</t>
-  </si>
-  <si>
-    <t>156185180.35867998→156091489.06892</t>
-  </si>
-  <si>
-    <t>41593382.542743→41591063.828182995</t>
-  </si>
-  <si>
-    <t>314960145.633961→314964911.133961</t>
-  </si>
-  <si>
-    <t>9361056.075534→9361072.575534</t>
-  </si>
-  <si>
-    <t>154202603.311392→154107956.910752</t>
-  </si>
-  <si>
-    <t>39509058.338612996→39506905.185813</t>
-  </si>
-  <si>
-    <t>328130850.838962→328135773.838962</t>
-  </si>
-  <si>
-    <t>9757479.269580998→9757489.769580998</t>
-  </si>
-  <si>
-    <t>156708273.059607→156609359.177447</t>
-  </si>
-  <si>
-    <t>41368266.767492→41365976.671331994</t>
-  </si>
-  <si>
-    <t>310498695.8789391→310493498.8789391</t>
-  </si>
-  <si>
-    <t>9828326.440137997→9828302.940137997</t>
-  </si>
-  <si>
-    <t>130201680.558258→130107200.609138</t>
-  </si>
-  <si>
-    <t>34590114.135122→34587957.091282</t>
-  </si>
-  <si>
-    <t>314535989.69263804→314540993.19263804</t>
-  </si>
-  <si>
-    <t>9552119.329165→9552141.829165</t>
-  </si>
-  <si>
-    <t>148531804.82250798→148435372.952428</t>
-  </si>
-  <si>
-    <t>41945245.28937→41942961.39497</t>
-  </si>
-  <si>
-    <t>332615486.27105594→332620079.27105594</t>
-  </si>
-  <si>
-    <t>10041599.427281→10041611.927281</t>
-  </si>
-  <si>
-    <t>26150473.599464994→26150283.631138995</t>
-  </si>
-  <si>
-    <t>144252892.577563→144154179.303083</t>
-  </si>
-  <si>
-    <t>40080822.260809004→40078448.487369</t>
-  </si>
-  <si>
-    <t>323655779.99458903→323660119.99458903</t>
-  </si>
-  <si>
-    <t>9934725.769651001→9934738.769651001</t>
-  </si>
-  <si>
-    <t>149364159.767402→149275346.991882</t>
-  </si>
-  <si>
-    <t>40802054.920646995→40799821.822247</t>
-  </si>
-  <si>
-    <t>329242836.24530596→329247549.24530596</t>
-  </si>
-  <si>
-    <t>10175621.121036004→10175638.121036004</t>
-  </si>
-  <si>
-    <t>146951849.030656→146861324.031536</t>
-  </si>
-  <si>
-    <t>42373921.618347995→42371736.367787994</t>
-  </si>
-  <si>
-    <t>332462199.68792695→332466353.68792695</t>
-  </si>
-  <si>
-    <t>10296138.760561999→10296153.760561999</t>
-  </si>
-  <si>
-    <t>135261624.906722→135190566.369042</t>
-  </si>
-  <si>
-    <t>40149333.463177→40147712.639177</t>
-  </si>
-  <si>
-    <t>308928832.1160599→308932372.6160599</t>
-  </si>
-  <si>
-    <t>9761159.793801002→9761283.168801002</t>
-  </si>
-  <si>
-    <t>145991170.36938→145921157.1669</t>
-  </si>
-  <si>
-    <t>43615086.83883→43613539.42667</t>
-  </si>
-  <si>
-    <t>328366751.9243191→328372647.8878251</t>
-  </si>
-  <si>
-    <t>10551850.735480001→10551745.12448</t>
-  </si>
-  <si>
-    <t>137426619.562528→137364009.329248</t>
-  </si>
-  <si>
-    <t>39321993.930377→39320651.906697</t>
-  </si>
-  <si>
-    <t>313474984.0330919→313469577.0695859</t>
-  </si>
-  <si>
-    <t>10050927.384962004→10050814.909362003</t>
-  </si>
-  <si>
-    <t>25580243.793004→25576416.798554</t>
-  </si>
-  <si>
-    <t>2791275.517515→2791309.073625</t>
-  </si>
-  <si>
-    <t>136011829.812565→135942485.736165</t>
-  </si>
-  <si>
-    <t>38823957.242663994→38822550.007543996</t>
-  </si>
-  <si>
-    <t>319864300.46420413→319868850.0006981</t>
-  </si>
-  <si>
-    <t>10446779.053168004→10446885.969968004</t>
-  </si>
-  <si>
-    <t>123875685.49710299→123806340.789903</t>
-  </si>
-  <si>
-    <t>35149077.077962→35147763.334042005</t>
-  </si>
-  <si>
-    <t>307811796.3975529→307815727.3610589</t>
-  </si>
-  <si>
-    <t>10146025.764979→10146046.202479</t>
-  </si>
-  <si>
-    <t>133643140.479696→133566813.015696</t>
-  </si>
-  <si>
-    <t>40557021.506912→40555621.369952</t>
-  </si>
-  <si>
-    <t>317209855.179657→317214674.21670896</t>
-  </si>
-  <si>
-    <t>10690475.555558994→10693253.981962996</t>
-  </si>
-  <si>
-    <t>26097977.901654→26097911.978262004</t>
-  </si>
-  <si>
-    <t>114398098.85618201→114347557.214662</t>
-  </si>
-  <si>
-    <t>35706151.735317→35705207.035957</t>
-  </si>
-  <si>
-    <t>311034398.2962468→311043411.00051886</t>
-  </si>
-  <si>
-    <t>10783001.471142994→10792501.988998994</t>
-  </si>
-  <si>
-    <t>116104495.891498→116054042.024138</t>
-  </si>
-  <si>
-    <t>37033632.689781→37032672.359861</t>
-  </si>
-  <si>
-    <t>300058274.0851149→300056821.6221729</t>
-  </si>
-  <si>
-    <t>10607306.739009999→10614517.987949997</t>
-  </si>
-  <si>
-    <t>132814887.212783→132739280.899263</t>
-  </si>
-  <si>
-    <t>42877660.830479994→42876250.202319995</t>
-  </si>
-  <si>
-    <t>311046785.3424421→311046010.5653141</t>
-  </si>
-  <si>
-    <t>11195325.962626005→11201687.196694005</t>
-  </si>
-  <si>
-    <t>130735636.410596→130675524.218356</t>
-  </si>
-  <si>
-    <t>42990902.471898995→42989707.384779</t>
-  </si>
-  <si>
-    <t>300280589.12482995→300289085.62794995</t>
-  </si>
-  <si>
-    <t>10894711.176881999→10900617.169141999</t>
-  </si>
-  <si>
-    <t>132229753.792654→132158780.273534</t>
-  </si>
-  <si>
-    <t>44286093.869511→44284810.297751</t>
-  </si>
-  <si>
-    <t>304664065.83716893→304671252.1035649</t>
-  </si>
-  <si>
-    <t>11179396.044890003→11183708.375786005</t>
-  </si>
-  <si>
-    <t>26180799.751340996→26180452.376340996</t>
-  </si>
-  <si>
-    <t>128904552.12500401→128828086.761484</t>
-  </si>
-  <si>
-    <t>43031712.938378→43030408.616618</t>
-  </si>
-  <si>
-    <t>297306326.83528185→297305039.75696987</t>
-  </si>
-  <si>
-    <t>11020983.519117998→11024950.420205997</t>
-  </si>
-  <si>
-    <t>24692322.193239→24693282.818797998</t>
-  </si>
-  <si>
-    <t>113835243.269987→113767111.593107</t>
-  </si>
-  <si>
-    <t>38455676.958267→38447937.466827005</t>
-  </si>
-  <si>
-    <t>274024920.16305697→274031890.624217</t>
-  </si>
-  <si>
-    <t>10158105.489872001→10162394.893552</t>
-  </si>
-  <si>
-    <t>123267354.86891201→123165415.321632</t>
-  </si>
-  <si>
-    <t>40560521.290281996→40558691.087161995</t>
-  </si>
-  <si>
-    <t>303366120.4263079→303373794.3672359</t>
-  </si>
-  <si>
-    <t>11498670.694814995→11502447.501738995</t>
-  </si>
-  <si>
-    <t>120932384.25183001→120833683.42463</t>
-  </si>
-  <si>
-    <t>41776587.105992995→41774972.848953</t>
-  </si>
-  <si>
-    <t>295036312.4479031→295043349.5978931</t>
-  </si>
-  <si>
-    <t>11267702.755310997→11270942.996410998</t>
-  </si>
-  <si>
-    <t>25948711.647279993→25948711.459779993</t>
-  </si>
-  <si>
-    <t>119056823.753278→118972887.822878</t>
-  </si>
-  <si>
-    <t>38908112.391852→38906639.888172</t>
-  </si>
-  <si>
-    <t>297651154.8647601→297658778.2957681</t>
-  </si>
-  <si>
-    <t>11517028.845127003→11520286.477895005</t>
-  </si>
-  <si>
-    <t>26633972.031841→26633122.656841</t>
-  </si>
-  <si>
-    <t>109251621.609343→109161023.928783</t>
-  </si>
-  <si>
-    <t>35323665.807026→35322157.066226</t>
-  </si>
-  <si>
-    <t>289889673.926268→289888128.04716396</t>
-  </si>
-  <si>
-    <t>11254913.090162→11257695.101094002</t>
-  </si>
-  <si>
-    <t>114827810.94823399→114745856.124074</t>
-  </si>
-  <si>
-    <t>40239484.281282→40238092.377922006</t>
-  </si>
-  <si>
-    <t>298357510.2578399→298363610.77693594</t>
-  </si>
-  <si>
-    <t>11736092.585372997→11738211.698724998</t>
-  </si>
-  <si>
-    <t>109227755.92979199→109136462.609632</t>
-  </si>
-  <si>
-    <t>38446079.049986996→38444684.570306994</t>
-  </si>
-  <si>
-    <t>298407543.700757→298415101.59173304</t>
-  </si>
-  <si>
-    <t>11775134.080074994→11778234.667572994</t>
-  </si>
-  <si>
-    <t>27213899.646827005→27215916.646827005</t>
-  </si>
-  <si>
-    <t>4908752.624418999→4908746.663709999</t>
-  </si>
-  <si>
-    <t>113723587.91169→113630138.62337</t>
-  </si>
-  <si>
-    <t>41196723.356777→41195226.959737</t>
-  </si>
-  <si>
-    <t>276410258.205607→276417070.41314304</t>
-  </si>
-  <si>
-    <t>11498022.973018998→11500356.778334998</t>
-  </si>
-  <si>
-    <t>107316758.843363→107214860.619843</t>
-  </si>
-  <si>
-    <t>38065461.87067→38063825.73483</t>
-  </si>
-  <si>
-    <t>303755477.37088495→303762136.6756829</t>
-  </si>
-  <si>
-    <t>11938023.821274003→11940231.302988002</t>
-  </si>
-  <si>
-    <t>113293285.719723→113187774.692123</t>
-  </si>
-  <si>
-    <t>40706467.836097→40705178.237537004</t>
-  </si>
-  <si>
-    <t>293450564.622596→293456995.534147</t>
-  </si>
-  <si>
-    <t>11516191.250381→11518144.072793</t>
-  </si>
-  <si>
-    <t>26308995.854605004→26308985.284344006</t>
-  </si>
-  <si>
-    <t>112196989.187994→112086250.787194</t>
-  </si>
-  <si>
-    <t>41538622.576641→41536255.180801</t>
-  </si>
-  <si>
-    <t>293667414.02522004→293674417.94889796</t>
-  </si>
-  <si>
-    <t>11796401.896590006→11798488.478706004</t>
-  </si>
-  <si>
-    <t>107955708.743789→107846208.517069</t>
-  </si>
-  <si>
-    <t>42114541.068895→42113286.416015</t>
-  </si>
-  <si>
-    <t>296097696.359211→296096477.431025</t>
-  </si>
-  <si>
-    <t>12177186.123872006→12179228.044124005</t>
-  </si>
-  <si>
-    <t>100453964.224298→100353786.836458</t>
-  </si>
-  <si>
-    <t>38742931.823771→38741320.727371</t>
-  </si>
-  <si>
-    <t>268958747.64028203→268961361.532118</t>
-  </si>
-  <si>
-    <t>11264285.148571998→11266046.295753999</t>
-  </si>
-  <si>
-    <t>110399773.373954→110289443.260114</t>
-  </si>
-  <si>
-    <t>42351902.886001→42350167.641521</t>
-  </si>
-  <si>
-    <t>299961901.499349→299960839.667507</t>
-  </si>
-  <si>
-    <t>12835628.381675994→12837291.992144993</t>
-  </si>
-  <si>
-    <t>110598145.77491→110514276.04115</t>
-  </si>
-  <si>
-    <t>44229002.824787→44227659.692227</t>
-  </si>
-  <si>
-    <t>288603711.791078→288582622.62524897</t>
-  </si>
-  <si>
-    <t>12603414.612325003→12598256.305314006</t>
-  </si>
-  <si>
-    <t>27017865.578675→27017519.453675</t>
-  </si>
-  <si>
-    <t>116318511.73839→116217079.67607</t>
-  </si>
-  <si>
-    <t>45567183.944895→45565727.487454996</t>
-  </si>
-  <si>
-    <t>294862938.26645297→294854927.91108406</t>
-  </si>
-  <si>
-    <t>12986937.508005004→12984973.821307003</t>
-  </si>
-  <si>
-    <t>112472504.85529001→112379161.95969</t>
-  </si>
-  <si>
-    <t>44050591.827635996→44049253.402836</t>
-  </si>
-  <si>
-    <t>285958501.4578031→285952607.3841201</t>
-  </si>
-  <si>
-    <t>12754655.988061998→12754164.208310997</t>
-  </si>
-  <si>
-    <t>115206785.41196099→115113151.020361</t>
-  </si>
-  <si>
-    <t>45972010.375823→45970676.340063</t>
-  </si>
-  <si>
-    <t>293292008.83661103→293287621.237602</t>
-  </si>
-  <si>
-    <t>13482380.138894007→13482203.362624008</t>
-  </si>
-  <si>
-    <t>116220000.327089→116125580.204369</t>
-  </si>
-  <si>
-    <t>46296264.842493→46294945.886173</t>
-  </si>
-  <si>
-    <t>288269159.42205304→288267371.09172106</t>
-  </si>
-  <si>
-    <t>13327684.165197→13329504.45905</t>
-  </si>
-  <si>
-    <t>111807367.24964699→111711056.174447</t>
-  </si>
-  <si>
-    <t>44313124.160088→44311807.726968</t>
-  </si>
-  <si>
-    <t>283752443.62520397→283753710.36058897</t>
-  </si>
-  <si>
-    <t>12954071.792230997→12955267.125059998</t>
-  </si>
-  <si>
-    <t>116032514.454886→115940522.985206</t>
-  </si>
-  <si>
-    <t>45953851.030452→45952553.873252</t>
-  </si>
-  <si>
-    <t>292879105.298516→292870138.71873397</t>
-  </si>
-  <si>
-    <t>14142687.197793996→14143316.253214996</t>
-  </si>
-  <si>
-    <t>106651377.315476→106568389.606116</t>
-  </si>
-  <si>
-    <t>43284792.66144→43283387.843279995</t>
-  </si>
-  <si>
-    <t>286046402.42261904→286048531.26395005</t>
-  </si>
-  <si>
-    <t>13754556.727459004→13755857.262307001</t>
-  </si>
-  <si>
-    <t>112968887.487962→112857650.223962</t>
-  </si>
-  <si>
-    <t>46730255.351559→46728294.552919</t>
-  </si>
-  <si>
-    <t>292986170.1656819→293345892.0968199</t>
-  </si>
-  <si>
-    <t>14756412.346188998→14759814.984923996</t>
-  </si>
-  <si>
-    <t>27011549.239183→27011549.114183</t>
-  </si>
-  <si>
-    <t>113288045.82862699→113177311.285667</t>
-  </si>
-  <si>
-    <t>46706115.128107995→46704344.598667994</t>
-  </si>
-  <si>
-    <t>288472413.0413109→288830425.18191195</t>
-  </si>
-  <si>
-    <t>14704703.812416002→14708500.552868001</t>
-  </si>
-  <si>
-    <t>100508072.09039→100408061.62551</t>
-  </si>
-  <si>
-    <t>42330332.845839→42328764.006399</t>
-  </si>
-  <si>
-    <t>262976715.9416731→262977141.8006701</t>
-  </si>
-  <si>
-    <t>13647581.250288002→13648368.581608001</t>
-  </si>
-  <si>
-    <t>101992367.562978→101877917.847058</t>
-  </si>
-  <si>
-    <t>44237876.21177→44235889.07225</t>
-  </si>
-  <si>
-    <t>294805521.13834506→294803499.0855551</t>
-  </si>
-  <si>
-    <t>15781121.521721004→15781751.389101004</t>
-  </si>
-  <si>
-    <t>113075702.36084299→112969456.232123</t>
-  </si>
-  <si>
-    <t>46467616.378684→46465743.965084</t>
-  </si>
-  <si>
-    <t>287779253.7832801→287778702.640092</t>
-  </si>
-  <si>
-    <t>15379565.955726996→15375701.328626998</t>
-  </si>
-  <si>
-    <t>25602182.555310998→25606736.555310998</t>
-  </si>
-  <si>
-    <t>117224383.72122201→117130602.199462</t>
-  </si>
-  <si>
-    <t>45005001.089668→45003423.359268</t>
-  </si>
-  <si>
-    <t>292458900.048348→292486305.81635106</t>
-  </si>
-  <si>
-    <t>15599743.253393997→15598860.181962999</t>
-  </si>
-  <si>
-    <t>109793691.55668299→109720004.017243</t>
-  </si>
-  <si>
-    <t>43144973.259551→43143701.712831005</t>
-  </si>
-  <si>
-    <t>283354176.29454404→283408531.10426104</t>
-  </si>
-  <si>
-    <t>15190968.461636003→15187079.664981006</t>
-  </si>
-  <si>
-    <t>121272614.01018→121174445.64066</t>
-  </si>
-  <si>
-    <t>49230594.034683004→49229007.287163004</t>
-  </si>
-  <si>
-    <t>289799937.983131→289811987.43571204</t>
-  </si>
-  <si>
-    <t>15209576.229362→15205652.261021001</t>
-  </si>
-  <si>
-    <t>123399474.16543801→123307636.889838</t>
-  </si>
-  <si>
-    <t>51148888.419741→51147490.746221</t>
-  </si>
-  <si>
-    <t>289724607.897627→289730884.31574005</t>
-  </si>
-  <si>
-    <t>15055899.301558994→15051695.126208995</t>
-  </si>
-  <si>
-    <t>120540000.308799→120441528.836559</t>
-  </si>
-  <si>
-    <t>50454051.391059004→50452516.488659</t>
-  </si>
-  <si>
-    <t>281523476.03108895→281534467.00066996</t>
-  </si>
-  <si>
-    <t>14440582.024097→14438039.453112</t>
-  </si>
-  <si>
-    <t>115401694.68396601→115298447.212446</t>
-  </si>
-  <si>
-    <t>49587954.115241→49586306.180121</t>
-  </si>
-  <si>
-    <t>289622233.30485606→289642428.5988381</t>
-  </si>
-  <si>
-    <t>14689368.978813997→14683287.258879997</t>
-  </si>
-  <si>
-    <t>105735295.41538599→105630621.266826</t>
-  </si>
-  <si>
-    <t>46343175.786949→46341443.444148995</t>
-  </si>
-  <si>
-    <t>281715769.85652804→281726882.640647</t>
-  </si>
-  <si>
-    <t>14454572.850399002→14447003.248786002</t>
-  </si>
-  <si>
-    <t>112701896.014002→112595853.009522</t>
-  </si>
-  <si>
-    <t>50388548.920918→50386805.708438</t>
-  </si>
-  <si>
-    <t>283416865.336385→283430027.59188503</t>
-  </si>
-  <si>
-    <t>13976922.951625997→13969642.187081996</t>
-  </si>
-  <si>
-    <t>109681329.107869→109567603.497229</t>
-  </si>
-  <si>
-    <t>50022019.087043→50020201.227683</t>
-  </si>
-  <si>
-    <t>277652598.57483095→277660907.997601</t>
-  </si>
-  <si>
-    <t>14001258.023217997→13994438.227197997</t>
-  </si>
-  <si>
-    <t>101591665.687185→101487877.393025</t>
-  </si>
-  <si>
-    <t>45504806.912358→45503442.580918</t>
-  </si>
-  <si>
-    <t>261664351.62308896→261680520.94483793</t>
-  </si>
-  <si>
-    <t>13515232.368343→13508103.298443</t>
-  </si>
-  <si>
-    <t>4800999.127734001→4800887.364284001</t>
-  </si>
-  <si>
-    <t>111965627.95368001→111857216.87056</t>
-  </si>
-  <si>
-    <t>50567538.618468→50565023.432708</t>
-  </si>
-  <si>
-    <t>282798311.870996→282808888.714222</t>
-  </si>
-  <si>
-    <t>14429394.244187996→14421674.506335994</t>
-  </si>
-  <si>
-    <t>5345510.733277001→5345416.217377001</t>
-  </si>
-  <si>
-    <t>102156912.942344→102051620.012184</t>
-  </si>
-  <si>
-    <t>47770402.946107→47768826.417547</t>
-  </si>
-  <si>
-    <t>269930452.51042→269932208.605665</t>
-  </si>
-  <si>
-    <t>13636318.892388→13629959.566433996</t>
-  </si>
-  <si>
-    <t>4914471.877503001→4914472.877503001</t>
-  </si>
-  <si>
-    <t>111172614.669659→111066849.967499</t>
-  </si>
-  <si>
-    <t>50009629.262143→50008179.544303</t>
-  </si>
-  <si>
-    <t>271624643.90497994→271621899.4867649</t>
-  </si>
-  <si>
-    <t>13712690.122376→13706443.29413</t>
-  </si>
-  <si>
-    <t>4902404.005697→4902315.890346999</t>
-  </si>
-  <si>
-    <t>98049134.21322699→97957558.507147</t>
-  </si>
-  <si>
-    <t>47085876.329311→47084648.281231</t>
-  </si>
-  <si>
-    <t>266058786.78333107→266053328.376771</t>
-  </si>
-  <si>
-    <t>13171758.276616005→13165105.434357004</t>
-  </si>
-  <si>
-    <t>4701751.5031630015→4701752.5031630015</t>
-  </si>
-  <si>
-    <t>103362188.33668101→103297617.895721</t>
-  </si>
-  <si>
-    <t>49150433.926375→49149480.083735004</t>
-  </si>
-  <si>
-    <t>260709543.612276→260708404.666854</t>
-  </si>
-  <si>
-    <t>13727370.949982002→13719454.306446003</t>
-  </si>
-  <si>
-    <t>4954351.545561001→4954358.545561001</t>
-  </si>
-  <si>
-    <t>106467137.995241→106372060.266841</t>
-  </si>
-  <si>
-    <t>50733424.973274→50732184.415434</t>
-  </si>
-  <si>
-    <t>263716319.78986505→263714213.57157302</t>
-  </si>
-  <si>
-    <t>13516245.377984997→13509236.779053995</t>
-  </si>
-  <si>
-    <t>4793593.883384999→4793601.883384999</t>
-  </si>
-  <si>
-    <t>98243357.316152→98150269.655512</t>
-  </si>
-  <si>
-    <t>45795150.070185006→45793921.032745</t>
-  </si>
-  <si>
-    <t>267954516.389603→267948741.94807398</t>
-  </si>
-  <si>
-    <t>13003924.731702004→12996618.519058004</t>
-  </si>
-  <si>
-    <t>26092909.421643995→26092845.491875995</t>
-  </si>
-  <si>
-    <t>4711464.167056998→4711466.498028998</t>
-  </si>
-  <si>
-    <t>104864403.461576→104779776.641656</t>
-  </si>
-  <si>
-    <t>50360211.056089→50359021.287609</t>
-  </si>
-  <si>
-    <t>280400874.23641396→280399170.776427</t>
-  </si>
-  <si>
-    <t>14108907.078283995→14101486.715231996</t>
-  </si>
-  <si>
-    <t>5442287.261861999→5442295.261861999</t>
-  </si>
-  <si>
-    <t>102199690.197054→102108657.287054</t>
-  </si>
-  <si>
-    <t>51137537.241644→51136195.536684</t>
-  </si>
-  <si>
-    <t>268607020.337206→268604845.007736</t>
-  </si>
-  <si>
-    <t>13548685.60616→13541723.509358</t>
-  </si>
-  <si>
-    <t>25773174.433647→25773173.779175</t>
-  </si>
-  <si>
-    <t>5064382.850295999→5064389.850295999</t>
-  </si>
-  <si>
-    <t>108173645.837176→108063562.053736</t>
-  </si>
-  <si>
-    <t>54386287.578379996→54384733.78254</t>
-  </si>
-  <si>
-    <t>272609048.42035496→272612897.739855</t>
-  </si>
-  <si>
-    <t>13617644.298109999→13611889.847729998</t>
-  </si>
-  <si>
-    <t>5262129.408532→5262136.408532</t>
-  </si>
-  <si>
-    <t>106459067.226228→106355362.600628</t>
-  </si>
-  <si>
-    <t>54839205.482479→54837731.458239</t>
-  </si>
-  <si>
-    <t>266529983.72592103→266522254.80764204</t>
-  </si>
-  <si>
-    <t>13692538.871958002→13685565.648496002</t>
-  </si>
-  <si>
-    <t>25558285.872142002→25553259.872142002</t>
-  </si>
-  <si>
-    <t>5436088.369589999→5436095.369589999</t>
-  </si>
-  <si>
-    <t>93180035.185323→93083521.951723</t>
-  </si>
-  <si>
-    <t>49593007.116963→49591621.849603005</t>
-  </si>
-  <si>
-    <t>244198117.2527681→244201899.35826507</t>
-  </si>
-  <si>
-    <t>13062404.128672004→13060952.088063003</t>
-  </si>
-  <si>
-    <t>23331731.671131→23331802.164581</t>
-  </si>
-  <si>
-    <t>5057054.983053001→5057432.431153</t>
-  </si>
-  <si>
-    <t>106424413.966592→106318023.424512</t>
-  </si>
-  <si>
-    <t>55603463.240311→55601945.508951</t>
-  </si>
-  <si>
-    <t>273435468.849273→273451467.843904</t>
-  </si>
-  <si>
-    <t>14897369.85367699→14895743.150443992</t>
-  </si>
-  <si>
-    <t>26107769.970400997→26160381.070301</t>
-  </si>
-  <si>
-    <t>5741518.523446998→5751591.990746998</t>
-  </si>
-  <si>
-    <t>95410645.554529→95309586.680129</t>
-  </si>
-  <si>
-    <t>50484257.801863→50482824.371943</t>
-  </si>
-  <si>
-    <t>266031345.34657→266047947.31585</t>
-  </si>
-  <si>
-    <t>14503200.14339099→14501482.732211992</t>
-  </si>
-  <si>
-    <t>25504111.975418005→25541414.617618002</t>
-  </si>
-  <si>
-    <t>5592614.039027001→5599054.916427</t>
-  </si>
-  <si>
-    <t>99480008.827071→99384245.219871</t>
-  </si>
-  <si>
-    <t>52785368.29437701→52785907.405177005</t>
-  </si>
-  <si>
-    <t>268794372.900267→268807768.386123</t>
-  </si>
-  <si>
-    <t>15460235.505065998→15437326.822222998</t>
-  </si>
-  <si>
-    <t>27128939.188746005→27165977.305446006</t>
-  </si>
-  <si>
-    <t>5784966.799121→5790371.336121</t>
-  </si>
-  <si>
-    <t>90698924.364846→90625884.358206</t>
-  </si>
-  <si>
-    <t>49431547.605185→49430561.439025</t>
-  </si>
-  <si>
-    <t>263137037.54822707→263145185.87331304</t>
-  </si>
-  <si>
-    <t>14323069.742797999→14322327.100592999</t>
-  </si>
-  <si>
-    <t>26710789.752598→26741100.873922996</t>
-  </si>
-  <si>
-    <t>5906784.897541→5911107.669241</t>
-  </si>
-  <si>
-    <t>97923677.311993→97841805.082793</t>
-  </si>
-  <si>
-    <t>55001236.205224→55000181.627144</t>
-  </si>
-  <si>
-    <t>271852518.57783806→271810474.62138504</t>
-  </si>
-  <si>
-    <t>15136363.878077→15142651.555004</t>
-  </si>
-  <si>
-    <t>27461265.361261006→27493689.092786007</t>
-  </si>
-  <si>
-    <t>6099485.079238→6103275.511538</t>
-  </si>
-  <si>
-    <t>92864568.21903299→92781497.208713</t>
-  </si>
-  <si>
-    <t>53808589.586752005→53807479.356192</t>
-  </si>
-  <si>
-    <t>268965663.3130761→268673846.036517</t>
-  </si>
-  <si>
-    <t>15693883.484103→15694856.781244</t>
-  </si>
-  <si>
-    <t>28114078.001735996→28141368.326410998</t>
-  </si>
-  <si>
-    <t>6493619.440150001→6496754.194450001</t>
-  </si>
-  <si>
-    <t>88562161.128611→88478295.737411</t>
-  </si>
-  <si>
-    <t>51298842.406932→51297752.842692</t>
-  </si>
-  <si>
-    <t>266668566.12085095→266432267.31154296</t>
-  </si>
-  <si>
-    <t>16001973.567281→15976014.719488</t>
-  </si>
-  <si>
-    <t>27305996.512522995→27330790.184972998</t>
-  </si>
-  <si>
-    <t>6296823.403076→6299539.348276</t>
-  </si>
-  <si>
-    <t>80771901.601024→80697583.805904</t>
-  </si>
-  <si>
-    <t>46472753.904387→46471684.946706995</t>
-  </si>
-  <si>
-    <t>276322185.37183803→276007274.188928</t>
-  </si>
-  <si>
-    <t>17000402.457529→16979223.178947005</t>
-  </si>
-  <si>
-    <t>28704271.044589→28726064.535019</t>
-  </si>
-  <si>
-    <t>6652901.014962999→6654869.789462999</t>
-  </si>
-  <si>
-    <t>81947413.12092699→81864924.239247</t>
-  </si>
-  <si>
-    <t>51450318.059423→51449088.198622994</t>
-  </si>
-  <si>
-    <t>268093946.19518897→262655584.58194298</t>
-  </si>
-  <si>
-    <t>16948762.535674→16884118.901281998</t>
-  </si>
-  <si>
-    <t>28668656.852568995→28786516.686793994</t>
-  </si>
-  <si>
-    <t>6604270.251161998→6601278.961361998</t>
-  </si>
-  <si>
-    <t>78632396.19624001→78555057.56544</t>
-  </si>
-  <si>
-    <t>49117304.644065→49116024.213024996</t>
-  </si>
-  <si>
-    <t>283076600.8408941→276427894.8634611</t>
-  </si>
-  <si>
-    <t>18080340.308670007→18009559.942264006</t>
-  </si>
-  <si>
-    <t>30177458.094695→30552848.477794997</t>
-  </si>
-  <si>
-    <t>6714145.803146998→6718240.988646998</t>
-  </si>
-  <si>
-    <t>79161052.465226→79073890.931546</t>
-  </si>
-  <si>
-    <t>51243958.337888→51242542.271568</t>
-  </si>
-  <si>
-    <t>280359787.037946→273904759.95324</t>
-  </si>
-  <si>
-    <t>17373875.531411998→17332040.478998996</t>
-  </si>
-  <si>
-    <t>30224700.183242004→30502434.279017005</t>
-  </si>
-  <si>
-    <t>6696109.150609999→6698849.7665099995</t>
-  </si>
-  <si>
-    <t>75051758.85218401→74987316.968264</t>
-  </si>
-  <si>
-    <t>48390299.135081→48389237.830681</t>
-  </si>
-  <si>
-    <t>253515638.50623503→246488479.29861397</t>
-  </si>
-  <si>
-    <t>16356645.212807992→16310090.988870991</t>
-  </si>
-  <si>
-    <t>27132331.680637→27420007.697886996</t>
-  </si>
-  <si>
-    <t>5893821.183260001→5889117.520060001</t>
-  </si>
-  <si>
-    <t>83629140.60457301→83560798.225293</t>
-  </si>
-  <si>
-    <t>52632100.509688005→52630981.390808</t>
-  </si>
-  <si>
-    <t>283149785.1506352→277278977.1017191</t>
-  </si>
-  <si>
-    <t>18378554.217714995→18334341.171260994</t>
-  </si>
-  <si>
-    <t>30938477.435399003→31291966.550535005</t>
-  </si>
-  <si>
-    <t>6915073.472082→6942466.099822001</t>
-  </si>
-  <si>
-    <t>76526591.771907→76442713.546947</t>
-  </si>
-  <si>
-    <t>48563296.00086→48561950.83246</t>
-  </si>
-  <si>
-    <t>272246586.84660006→267083979.613886</t>
-  </si>
-  <si>
-    <t>18561575.69646599→18525527.571498994</t>
-  </si>
-  <si>
-    <t>30619960.608230993→31009738.470843</t>
-  </si>
-  <si>
-    <t>7292902.833717001→7342771.240878002</t>
-  </si>
-  <si>
-    <t>79033108.110744→78954120.264344</t>
-  </si>
-  <si>
-    <t>48112941.70853→48111670.98253</t>
-  </si>
-  <si>
-    <t>277778086.612416→272482032.332956</t>
-  </si>
-  <si>
-    <t>18803807.15199701→18724947.80313201</t>
-  </si>
-  <si>
-    <t>30904304.963957004→31245170.302455004</t>
-  </si>
-  <si>
-    <t>7496996.5993880015→7516093.238932001</t>
-  </si>
-  <si>
-    <t>79226646.01409401→79174604.848094</t>
-  </si>
-  <si>
-    <t>50370913.355338→50369169.670938</t>
-  </si>
-  <si>
-    <t>265224240.02444097→260145547.57137302</t>
-  </si>
-  <si>
-    <t>17628387.798526004→17526673.35457</t>
-  </si>
-  <si>
-    <t>29913134.562235992→30228752.623558994</t>
-  </si>
-  <si>
-    <t>7108883.585257999→7131539.214902999</t>
-  </si>
-  <si>
-    <t>92295975.043522→92179309.676162</t>
-  </si>
-  <si>
-    <t>58351967.401684→58349543.690084</t>
-  </si>
-  <si>
-    <t>277358368.07694894→272382745.66813093</t>
-  </si>
-  <si>
-    <t>19170934.221219994→19083466.419619</t>
-  </si>
-  <si>
-    <t>30371937.894285→30713072.087535</t>
-  </si>
-  <si>
-    <t>7141942.754517→7175219.593110999</t>
-  </si>
-  <si>
-    <t>98156516.974841→98079413.062441</t>
-  </si>
-  <si>
-    <t>61085060.453874→61083902.245314</t>
-  </si>
-  <si>
-    <t>277847924.123142→272485633.4810771</t>
-  </si>
-  <si>
-    <t>20362593.542212993→20276543.324903</t>
-  </si>
-  <si>
-    <t>30870746.222538→31235120.325866997</t>
-  </si>
-  <si>
-    <t>7329047.654727→7364544.760713</t>
-  </si>
-  <si>
-    <t>88625537.90008199→88561291.438002</t>
-  </si>
-  <si>
-    <t>54372189.0445→54371121.82786</t>
-  </si>
-  <si>
-    <t>259300940.02438894→264395929.955298</t>
-  </si>
-  <si>
-    <t>20026557.002853002→20122692.456507</t>
-  </si>
-  <si>
-    <t>29946774.68303→30312982.814786002</t>
-  </si>
-  <si>
-    <t>6791293.009294999→7010677.702240999</t>
-  </si>
-  <si>
-    <t>86491683.80972499→86432047.074685</t>
-  </si>
-  <si>
-    <t>54677226.299707994→54676145.012908</t>
-  </si>
-  <si>
-    <t>282212747.896667→279762889.83157396</t>
-  </si>
-  <si>
-    <t>20961816.035027996→21238372.662525997</t>
-  </si>
-  <si>
-    <t>30462407.925014004→30929101.054864</t>
-  </si>
-  <si>
-    <t>6888927.371148001→7165973.988358001</t>
-  </si>
-  <si>
-    <t>90600046.260465→90525909.136385</t>
-  </si>
-  <si>
-    <t>58951854.426763→58950492.995723</t>
-  </si>
-  <si>
-    <t>262366646.942034→261731081.021739</t>
-  </si>
-  <si>
-    <t>19929090.626679998→20275969.926453</t>
-  </si>
-  <si>
-    <t>29025612.203739997→29468217.474300995</t>
-  </si>
-  <si>
-    <t>6879751.349118001→7067730.533626</t>
-  </si>
-  <si>
-    <t>92378448.051508→92316866.490468</t>
-  </si>
-  <si>
-    <t>59997511.243951→59997058.747071</t>
-  </si>
-  <si>
-    <t>271234923.50311613→270747985.803244</t>
-  </si>
-  <si>
-    <t>20796603.635305993→21110763.264312997</t>
-  </si>
-  <si>
-    <t>29518415.419470996→29966787.796522</t>
-  </si>
-  <si>
-    <t>6801490.541457999→6999706.813762</t>
-  </si>
-  <si>
-    <t>93853280.381421→94214940.076541</t>
-  </si>
-  <si>
-    <t>59202613.128094→59848630.918494</t>
-  </si>
-  <si>
-    <t>264838586.46388596→267802180.611995</t>
-  </si>
-  <si>
-    <t>20659374.577575006→21146949.680397995</t>
-  </si>
-  <si>
-    <t>28345224.575003993→28888398.07279299</t>
-  </si>
-  <si>
-    <t>6562190.71728→6725389.159246</t>
   </si>
 </sst>
 </file>
@@ -2304,8 +513,8 @@
       <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
-        <v>25</v>
+      <c r="G2">
+        <v>248400296.794714</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2327,8 +536,8 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
-        <v>26</v>
+      <c r="G3">
+        <v>42599201.986758</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2373,8 +582,8 @@
       <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
-        <v>27</v>
+      <c r="G5">
+        <v>312660016.8692681</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2488,8 +697,8 @@
       <c r="F10" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
-        <v>28</v>
+      <c r="G10">
+        <v>235770383.197717</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2511,8 +720,8 @@
       <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" t="s">
-        <v>29</v>
+      <c r="G11">
+        <v>40956063.14062</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2557,8 +766,8 @@
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" t="s">
-        <v>30</v>
+      <c r="G13">
+        <v>295539166.344559</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2672,8 +881,8 @@
       <c r="F18" t="s">
         <v>22</v>
       </c>
-      <c r="G18" t="s">
-        <v>31</v>
+      <c r="G18">
+        <v>247177565.025781</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2695,8 +904,8 @@
       <c r="F19" t="s">
         <v>23</v>
       </c>
-      <c r="G19" t="s">
-        <v>32</v>
+      <c r="G19">
+        <v>42822573.133196</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2741,8 +950,8 @@
       <c r="F21" t="s">
         <v>22</v>
       </c>
-      <c r="G21" t="s">
-        <v>33</v>
+      <c r="G21">
+        <v>330378607.060903</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2856,8 +1065,8 @@
       <c r="F26" t="s">
         <v>22</v>
       </c>
-      <c r="G26" t="s">
-        <v>34</v>
+      <c r="G26">
+        <v>216495712.579584</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2879,8 +1088,8 @@
       <c r="F27" t="s">
         <v>23</v>
       </c>
-      <c r="G27" t="s">
-        <v>35</v>
+      <c r="G27">
+        <v>41467616.603544</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2925,8 +1134,8 @@
       <c r="F29" t="s">
         <v>22</v>
       </c>
-      <c r="G29" t="s">
-        <v>36</v>
+      <c r="G29">
+        <v>320365274.7684159</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3040,8 +1249,8 @@
       <c r="F34" t="s">
         <v>22</v>
       </c>
-      <c r="G34" t="s">
-        <v>37</v>
+      <c r="G34">
+        <v>215807068.580967</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3063,8 +1272,8 @@
       <c r="F35" t="s">
         <v>23</v>
       </c>
-      <c r="G35" t="s">
-        <v>38</v>
+      <c r="G35">
+        <v>42482210.892193</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3109,8 +1318,8 @@
       <c r="F37" t="s">
         <v>22</v>
       </c>
-      <c r="G37" t="s">
-        <v>39</v>
+      <c r="G37">
+        <v>328688068.763044</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3224,8 +1433,8 @@
       <c r="F42" t="s">
         <v>22</v>
       </c>
-      <c r="G42" t="s">
-        <v>40</v>
+      <c r="G42">
+        <v>227376555.056598</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3247,8 +1456,8 @@
       <c r="F43" t="s">
         <v>23</v>
       </c>
-      <c r="G43" t="s">
-        <v>41</v>
+      <c r="G43">
+        <v>42239693.663076</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3293,8 +1502,8 @@
       <c r="F45" t="s">
         <v>22</v>
       </c>
-      <c r="G45" t="s">
-        <v>42</v>
+      <c r="G45">
+        <v>318546755.8558022</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3408,8 +1617,8 @@
       <c r="F50" t="s">
         <v>22</v>
       </c>
-      <c r="G50" t="s">
-        <v>43</v>
+      <c r="G50">
+        <v>238394831.525783</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3431,8 +1640,8 @@
       <c r="F51" t="s">
         <v>23</v>
       </c>
-      <c r="G51" t="s">
-        <v>44</v>
+      <c r="G51">
+        <v>44763308.778232</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3477,8 +1686,8 @@
       <c r="F53" t="s">
         <v>22</v>
       </c>
-      <c r="G53" t="s">
-        <v>45</v>
+      <c r="G53">
+        <v>333959816.363913</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3592,8 +1801,8 @@
       <c r="F58" t="s">
         <v>22</v>
       </c>
-      <c r="G58" t="s">
-        <v>46</v>
+      <c r="G58">
+        <v>219812953.701202</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3615,8 +1824,8 @@
       <c r="F59" t="s">
         <v>23</v>
       </c>
-      <c r="G59" t="s">
-        <v>47</v>
+      <c r="G59">
+        <v>41923938.152732</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3661,8 +1870,8 @@
       <c r="F61" t="s">
         <v>22</v>
       </c>
-      <c r="G61" t="s">
-        <v>48</v>
+      <c r="G61">
+        <v>333048280.27936</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3776,8 +1985,8 @@
       <c r="F66" t="s">
         <v>22</v>
       </c>
-      <c r="G66" t="s">
-        <v>49</v>
+      <c r="G66">
+        <v>69647740.126715</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3799,8 +2008,8 @@
       <c r="F67" t="s">
         <v>23</v>
       </c>
-      <c r="G67" t="s">
-        <v>50</v>
+      <c r="G67">
+        <v>9577186.757226</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3845,8 +2054,8 @@
       <c r="F69" t="s">
         <v>22</v>
       </c>
-      <c r="G69" t="s">
-        <v>51</v>
+      <c r="G69">
+        <v>307716035.0997518</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3960,8 +2169,8 @@
       <c r="F74" t="s">
         <v>22</v>
       </c>
-      <c r="G74" t="s">
-        <v>52</v>
+      <c r="G74">
+        <v>141790529.763977</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3983,8 +2192,8 @@
       <c r="F75" t="s">
         <v>23</v>
       </c>
-      <c r="G75" t="s">
-        <v>53</v>
+      <c r="G75">
+        <v>27181924.174651</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -4029,8 +2238,8 @@
       <c r="F77" t="s">
         <v>22</v>
       </c>
-      <c r="G77" t="s">
-        <v>54</v>
+      <c r="G77">
+        <v>335787315.508405</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -4144,8 +2353,8 @@
       <c r="F82" t="s">
         <v>22</v>
       </c>
-      <c r="G82" t="s">
-        <v>55</v>
+      <c r="G82">
+        <v>165603446.149677</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -4167,8 +2376,8 @@
       <c r="F83" t="s">
         <v>23</v>
       </c>
-      <c r="G83" t="s">
-        <v>56</v>
+      <c r="G83">
+        <v>34892543.226287</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -4213,8 +2422,8 @@
       <c r="F85" t="s">
         <v>22</v>
       </c>
-      <c r="G85" t="s">
-        <v>57</v>
+      <c r="G85">
+        <v>333842720.026932</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -4328,8 +2537,8 @@
       <c r="F90" t="s">
         <v>22</v>
       </c>
-      <c r="G90" t="s">
-        <v>58</v>
+      <c r="G90">
+        <v>182831320.34331</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4351,8 +2560,8 @@
       <c r="F91" t="s">
         <v>23</v>
       </c>
-      <c r="G91" t="s">
-        <v>59</v>
+      <c r="G91">
+        <v>39381348.129157</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4397,8 +2606,8 @@
       <c r="F93" t="s">
         <v>22</v>
       </c>
-      <c r="G93" t="s">
-        <v>60</v>
+      <c r="G93">
+        <v>339550274.5780941</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4512,8 +2721,8 @@
       <c r="F98" t="s">
         <v>22</v>
       </c>
-      <c r="G98" t="s">
-        <v>61</v>
+      <c r="G98">
+        <v>203532279.172451</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4535,8 +2744,8 @@
       <c r="F99" t="s">
         <v>23</v>
       </c>
-      <c r="G99" t="s">
-        <v>62</v>
+      <c r="G99">
+        <v>41968432.089085</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4581,8 +2790,8 @@
       <c r="F101" t="s">
         <v>22</v>
       </c>
-      <c r="G101" t="s">
-        <v>63</v>
+      <c r="G101">
+        <v>344852735.584554</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4696,8 +2905,8 @@
       <c r="F106" t="s">
         <v>22</v>
       </c>
-      <c r="G106" t="s">
-        <v>64</v>
+      <c r="G106">
+        <v>191727943.962695</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4719,8 +2928,8 @@
       <c r="F107" t="s">
         <v>23</v>
       </c>
-      <c r="G107" t="s">
-        <v>65</v>
+      <c r="G107">
+        <v>39008617.538023</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4765,8 +2974,8 @@
       <c r="F109" t="s">
         <v>22</v>
       </c>
-      <c r="G109" t="s">
-        <v>66</v>
+      <c r="G109">
+        <v>317364089.8124559</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4788,8 +2997,8 @@
       <c r="F110" t="s">
         <v>23</v>
       </c>
-      <c r="G110" t="s">
-        <v>67</v>
+      <c r="G110">
+        <v>8022845.253684998</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4880,8 +3089,8 @@
       <c r="F114" t="s">
         <v>22</v>
       </c>
-      <c r="G114" t="s">
-        <v>68</v>
+      <c r="G114">
+        <v>213188631.136784</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4903,8 +3112,8 @@
       <c r="F115" t="s">
         <v>23</v>
       </c>
-      <c r="G115" t="s">
-        <v>69</v>
+      <c r="G115">
+        <v>43423086.086229</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4949,8 +3158,8 @@
       <c r="F117" t="s">
         <v>22</v>
       </c>
-      <c r="G117" t="s">
-        <v>70</v>
+      <c r="G117">
+        <v>348488403.66177</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4972,8 +3181,8 @@
       <c r="F118" t="s">
         <v>23</v>
       </c>
-      <c r="G118" t="s">
-        <v>71</v>
+      <c r="G118">
+        <v>8757987.876167998</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -5064,8 +3273,8 @@
       <c r="F122" t="s">
         <v>22</v>
       </c>
-      <c r="G122" t="s">
-        <v>72</v>
+      <c r="G122">
+        <v>207718686.840525</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -5087,8 +3296,8 @@
       <c r="F123" t="s">
         <v>23</v>
       </c>
-      <c r="G123" t="s">
-        <v>73</v>
+      <c r="G123">
+        <v>46005495.341854</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -5133,8 +3342,8 @@
       <c r="F125" t="s">
         <v>22</v>
       </c>
-      <c r="G125" t="s">
-        <v>74</v>
+      <c r="G125">
+        <v>331688578.645058</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -5156,8 +3365,8 @@
       <c r="F126" t="s">
         <v>23</v>
       </c>
-      <c r="G126" t="s">
-        <v>75</v>
+      <c r="G126">
+        <v>8441291.671572004</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -5248,8 +3457,8 @@
       <c r="F130" t="s">
         <v>22</v>
       </c>
-      <c r="G130" t="s">
-        <v>76</v>
+      <c r="G130">
+        <v>211512188.710172</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5271,8 +3480,8 @@
       <c r="F131" t="s">
         <v>23</v>
       </c>
-      <c r="G131" t="s">
-        <v>77</v>
+      <c r="G131">
+        <v>50180148.764361</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5317,8 +3526,8 @@
       <c r="F133" t="s">
         <v>22</v>
       </c>
-      <c r="G133" t="s">
-        <v>78</v>
+      <c r="G133">
+        <v>338836332.9626591</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5340,8 +3549,8 @@
       <c r="F134" t="s">
         <v>23</v>
       </c>
-      <c r="G134" t="s">
-        <v>79</v>
+      <c r="G134">
+        <v>8681460.557858</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5432,8 +3641,8 @@
       <c r="F138" t="s">
         <v>22</v>
       </c>
-      <c r="G138" t="s">
-        <v>80</v>
+      <c r="G138">
+        <v>217496773.747297</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5455,8 +3664,8 @@
       <c r="F139" t="s">
         <v>23</v>
       </c>
-      <c r="G139" t="s">
-        <v>81</v>
+      <c r="G139">
+        <v>48907993.657539</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5501,8 +3710,8 @@
       <c r="F141" t="s">
         <v>22</v>
       </c>
-      <c r="G141" t="s">
-        <v>82</v>
+      <c r="G141">
+        <v>324440210.3767399</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -5524,8 +3733,8 @@
       <c r="F142" t="s">
         <v>23</v>
       </c>
-      <c r="G142" t="s">
-        <v>83</v>
+      <c r="G142">
+        <v>8389266.188411999</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -5570,8 +3779,8 @@
       <c r="F144" t="s">
         <v>22</v>
       </c>
-      <c r="G144" t="s">
-        <v>84</v>
+      <c r="G144">
+        <v>23403674.959045</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5616,8 +3825,8 @@
       <c r="F146" t="s">
         <v>22</v>
       </c>
-      <c r="G146" t="s">
-        <v>85</v>
+      <c r="G146">
+        <v>230755180.132635</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5639,8 +3848,8 @@
       <c r="F147" t="s">
         <v>23</v>
       </c>
-      <c r="G147" t="s">
-        <v>86</v>
+      <c r="G147">
+        <v>55925638.652387</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5685,8 +3894,8 @@
       <c r="F149" t="s">
         <v>22</v>
       </c>
-      <c r="G149" t="s">
-        <v>87</v>
+      <c r="G149">
+        <v>319856820.686672</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5708,8 +3917,8 @@
       <c r="F150" t="s">
         <v>23</v>
       </c>
-      <c r="G150" t="s">
-        <v>88</v>
+      <c r="G150">
+        <v>8502606.242322</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5800,8 +4009,8 @@
       <c r="F154" t="s">
         <v>22</v>
       </c>
-      <c r="G154" t="s">
-        <v>89</v>
+      <c r="G154">
+        <v>217092120.531657</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5823,8 +4032,8 @@
       <c r="F155" t="s">
         <v>23</v>
       </c>
-      <c r="G155" t="s">
-        <v>90</v>
+      <c r="G155">
+        <v>55884224.304354</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5869,8 +4078,8 @@
       <c r="F157" t="s">
         <v>22</v>
       </c>
-      <c r="G157" t="s">
-        <v>91</v>
+      <c r="G157">
+        <v>331234425.294135</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5892,8 +4101,8 @@
       <c r="F158" t="s">
         <v>23</v>
       </c>
-      <c r="G158" t="s">
-        <v>92</v>
+      <c r="G158">
+        <v>8556383.272793999</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5984,8 +4193,8 @@
       <c r="F162" t="s">
         <v>22</v>
       </c>
-      <c r="G162" t="s">
-        <v>93</v>
+      <c r="G162">
+        <v>206471069.666988</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -6007,8 +4216,8 @@
       <c r="F163" t="s">
         <v>23</v>
       </c>
-      <c r="G163" t="s">
-        <v>94</v>
+      <c r="G163">
+        <v>54473595.50005601</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -6053,8 +4262,8 @@
       <c r="F165" t="s">
         <v>22</v>
       </c>
-      <c r="G165" t="s">
-        <v>95</v>
+      <c r="G165">
+        <v>309667437.589478</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -6076,8 +4285,8 @@
       <c r="F166" t="s">
         <v>23</v>
       </c>
-      <c r="G166" t="s">
-        <v>96</v>
+      <c r="G166">
+        <v>8359913.364473002</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -6168,8 +4377,8 @@
       <c r="F170" t="s">
         <v>22</v>
       </c>
-      <c r="G170" t="s">
-        <v>97</v>
+      <c r="G170">
+        <v>215060894.321571</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -6191,8 +4400,8 @@
       <c r="F171" t="s">
         <v>23</v>
       </c>
-      <c r="G171" t="s">
-        <v>98</v>
+      <c r="G171">
+        <v>55599926.598296</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -6237,8 +4446,8 @@
       <c r="F173" t="s">
         <v>22</v>
       </c>
-      <c r="G173" t="s">
-        <v>99</v>
+      <c r="G173">
+        <v>337879491.79064</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6260,8 +4469,8 @@
       <c r="F174" t="s">
         <v>23</v>
       </c>
-      <c r="G174" t="s">
-        <v>100</v>
+      <c r="G174">
+        <v>8702089.180471003</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -6352,8 +4561,8 @@
       <c r="F178" t="s">
         <v>22</v>
       </c>
-      <c r="G178" t="s">
-        <v>101</v>
+      <c r="G178">
+        <v>200143475.402051</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6375,8 +4584,8 @@
       <c r="F179" t="s">
         <v>23</v>
       </c>
-      <c r="G179" t="s">
-        <v>102</v>
+      <c r="G179">
+        <v>48909581.196426</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -6421,8 +4630,8 @@
       <c r="F181" t="s">
         <v>22</v>
       </c>
-      <c r="G181" t="s">
-        <v>103</v>
+      <c r="G181">
+        <v>334001647.618343</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6444,8 +4653,8 @@
       <c r="F182" t="s">
         <v>23</v>
       </c>
-      <c r="G182" t="s">
-        <v>104</v>
+      <c r="G182">
+        <v>8584619.558272997</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6536,8 +4745,8 @@
       <c r="F186" t="s">
         <v>22</v>
       </c>
-      <c r="G186" t="s">
-        <v>105</v>
+      <c r="G186">
+        <v>207337255.76119</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -6559,8 +4768,8 @@
       <c r="F187" t="s">
         <v>23</v>
       </c>
-      <c r="G187" t="s">
-        <v>106</v>
+      <c r="G187">
+        <v>54068445.496104</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6605,8 +4814,8 @@
       <c r="F189" t="s">
         <v>22</v>
       </c>
-      <c r="G189" t="s">
-        <v>107</v>
+      <c r="G189">
+        <v>335541701.4100971</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6628,8 +4837,8 @@
       <c r="F190" t="s">
         <v>23</v>
       </c>
-      <c r="G190" t="s">
-        <v>108</v>
+      <c r="G190">
+        <v>8650791.952667</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6720,8 +4929,8 @@
       <c r="F194" t="s">
         <v>22</v>
       </c>
-      <c r="G194" t="s">
-        <v>109</v>
+      <c r="G194">
+        <v>210355483.304683</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6743,8 +4952,8 @@
       <c r="F195" t="s">
         <v>23</v>
       </c>
-      <c r="G195" t="s">
-        <v>110</v>
+      <c r="G195">
+        <v>53333353.435792</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6789,8 +4998,8 @@
       <c r="F197" t="s">
         <v>22</v>
       </c>
-      <c r="G197" t="s">
-        <v>111</v>
+      <c r="G197">
+        <v>335268138.1717039</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6812,8 +5021,8 @@
       <c r="F198" t="s">
         <v>23</v>
       </c>
-      <c r="G198" t="s">
-        <v>112</v>
+      <c r="G198">
+        <v>8665983.665225003</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6904,8 +5113,8 @@
       <c r="F202" t="s">
         <v>22</v>
       </c>
-      <c r="G202" t="s">
-        <v>113</v>
+      <c r="G202">
+        <v>195164307.439403</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6927,8 +5136,8 @@
       <c r="F203" t="s">
         <v>23</v>
       </c>
-      <c r="G203" t="s">
-        <v>114</v>
+      <c r="G203">
+        <v>49713901.445849</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6973,8 +5182,8 @@
       <c r="F205" t="s">
         <v>22</v>
       </c>
-      <c r="G205" t="s">
-        <v>115</v>
+      <c r="G205">
+        <v>302672916.234233</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6996,8 +5205,8 @@
       <c r="F206" t="s">
         <v>23</v>
       </c>
-      <c r="G206" t="s">
-        <v>116</v>
+      <c r="G206">
+        <v>8037029.489159999</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -7088,8 +5297,8 @@
       <c r="F210" t="s">
         <v>22</v>
       </c>
-      <c r="G210" t="s">
-        <v>117</v>
+      <c r="G210">
+        <v>217129273.028652</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -7111,8 +5320,8 @@
       <c r="F211" t="s">
         <v>23</v>
       </c>
-      <c r="G211" t="s">
-        <v>118</v>
+      <c r="G211">
+        <v>51699886.403339</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -7157,8 +5366,8 @@
       <c r="F213" t="s">
         <v>22</v>
       </c>
-      <c r="G213" t="s">
-        <v>119</v>
+      <c r="G213">
+        <v>335927467.1557911</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -7180,8 +5389,8 @@
       <c r="F214" t="s">
         <v>23</v>
       </c>
-      <c r="G214" t="s">
-        <v>120</v>
+      <c r="G214">
+        <v>9117187.211203996</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -7272,8 +5481,8 @@
       <c r="F218" t="s">
         <v>22</v>
       </c>
-      <c r="G218" t="s">
-        <v>121</v>
+      <c r="G218">
+        <v>200962353.244935</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7295,8 +5504,8 @@
       <c r="F219" t="s">
         <v>23</v>
       </c>
-      <c r="G219" t="s">
-        <v>122</v>
+      <c r="G219">
+        <v>46376149.711643</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7341,8 +5550,8 @@
       <c r="F221" t="s">
         <v>22</v>
       </c>
-      <c r="G221" t="s">
-        <v>123</v>
+      <c r="G221">
+        <v>327327807.231284</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7364,8 +5573,8 @@
       <c r="F222" t="s">
         <v>23</v>
       </c>
-      <c r="G222" t="s">
-        <v>124</v>
+      <c r="G222">
+        <v>8721054.319855003</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -7456,8 +5665,8 @@
       <c r="F226" t="s">
         <v>22</v>
       </c>
-      <c r="G226" t="s">
-        <v>125</v>
+      <c r="G226">
+        <v>199927129.923167</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -7479,8 +5688,8 @@
       <c r="F227" t="s">
         <v>23</v>
       </c>
-      <c r="G227" t="s">
-        <v>126</v>
+      <c r="G227">
+        <v>49626771.37877</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7525,8 +5734,8 @@
       <c r="F229" t="s">
         <v>22</v>
       </c>
-      <c r="G229" t="s">
-        <v>127</v>
+      <c r="G229">
+        <v>334311802.3723001</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7548,8 +5757,8 @@
       <c r="F230" t="s">
         <v>23</v>
       </c>
-      <c r="G230" t="s">
-        <v>128</v>
+      <c r="G230">
+        <v>9178828.752531001</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7640,8 +5849,8 @@
       <c r="F234" t="s">
         <v>22</v>
       </c>
-      <c r="G234" t="s">
-        <v>129</v>
+      <c r="G234">
+        <v>185198424.982145</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7663,8 +5872,8 @@
       <c r="F235" t="s">
         <v>23</v>
       </c>
-      <c r="G235" t="s">
-        <v>130</v>
+      <c r="G235">
+        <v>48242226.224952</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7709,8 +5918,8 @@
       <c r="F237" t="s">
         <v>22</v>
       </c>
-      <c r="G237" t="s">
-        <v>131</v>
+      <c r="G237">
+        <v>310798581.858651</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7732,8 +5941,8 @@
       <c r="F238" t="s">
         <v>23</v>
       </c>
-      <c r="G238" t="s">
-        <v>132</v>
+      <c r="G238">
+        <v>8799769.380300999</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7824,8 +6033,8 @@
       <c r="F242" t="s">
         <v>22</v>
       </c>
-      <c r="G242" t="s">
-        <v>133</v>
+      <c r="G242">
+        <v>185063544.533837</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7847,8 +6056,8 @@
       <c r="F243" t="s">
         <v>23</v>
       </c>
-      <c r="G243" t="s">
-        <v>134</v>
+      <c r="G243">
+        <v>46378029.345517</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7893,8 +6102,8 @@
       <c r="F245" t="s">
         <v>22</v>
       </c>
-      <c r="G245" t="s">
-        <v>135</v>
+      <c r="G245">
+        <v>328201783.8679121</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7916,8 +6125,8 @@
       <c r="F246" t="s">
         <v>23</v>
       </c>
-      <c r="G246" t="s">
-        <v>136</v>
+      <c r="G246">
+        <v>9196634.874553999</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -8008,8 +6217,8 @@
       <c r="F250" t="s">
         <v>22</v>
       </c>
-      <c r="G250" t="s">
-        <v>137</v>
+      <c r="G250">
+        <v>194060191.868821</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -8031,8 +6240,8 @@
       <c r="F251" t="s">
         <v>23</v>
       </c>
-      <c r="G251" t="s">
-        <v>138</v>
+      <c r="G251">
+        <v>49994159.105398</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -8077,8 +6286,8 @@
       <c r="F253" t="s">
         <v>22</v>
       </c>
-      <c r="G253" t="s">
-        <v>139</v>
+      <c r="G253">
+        <v>330407469.1528741</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -8100,8 +6309,8 @@
       <c r="F254" t="s">
         <v>23</v>
       </c>
-      <c r="G254" t="s">
-        <v>140</v>
+      <c r="G254">
+        <v>9204630.533299999</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -8192,8 +6401,8 @@
       <c r="F258" t="s">
         <v>22</v>
       </c>
-      <c r="G258" t="s">
-        <v>141</v>
+      <c r="G258">
+        <v>183318037.000168</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -8215,8 +6424,8 @@
       <c r="F259" t="s">
         <v>23</v>
       </c>
-      <c r="G259" t="s">
-        <v>142</v>
+      <c r="G259">
+        <v>49461956.881738</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -8261,8 +6470,8 @@
       <c r="F261" t="s">
         <v>22</v>
       </c>
-      <c r="G261" t="s">
-        <v>143</v>
+      <c r="G261">
+        <v>319272558.026803</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -8284,8 +6493,8 @@
       <c r="F262" t="s">
         <v>23</v>
       </c>
-      <c r="G262" t="s">
-        <v>144</v>
+      <c r="G262">
+        <v>8921420.548557</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -8376,8 +6585,8 @@
       <c r="F266" t="s">
         <v>22</v>
       </c>
-      <c r="G266" t="s">
-        <v>145</v>
+      <c r="G266">
+        <v>188789221.012024</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -8399,8 +6608,8 @@
       <c r="F267" t="s">
         <v>23</v>
       </c>
-      <c r="G267" t="s">
-        <v>146</v>
+      <c r="G267">
+        <v>50405068.576373</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -8445,8 +6654,8 @@
       <c r="F269" t="s">
         <v>22</v>
       </c>
-      <c r="G269" t="s">
-        <v>147</v>
+      <c r="G269">
+        <v>327806871.0705249</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -8468,8 +6677,8 @@
       <c r="F270" t="s">
         <v>23</v>
       </c>
-      <c r="G270" t="s">
-        <v>148</v>
+      <c r="G270">
+        <v>9322656.339632999</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -8560,8 +6769,8 @@
       <c r="F274" t="s">
         <v>22</v>
       </c>
-      <c r="G274" t="s">
-        <v>149</v>
+      <c r="G274">
+        <v>175276187.754453</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8583,8 +6792,8 @@
       <c r="F275" t="s">
         <v>23</v>
       </c>
-      <c r="G275" t="s">
-        <v>150</v>
+      <c r="G275">
+        <v>46255610.307061</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -8629,8 +6838,8 @@
       <c r="F277" t="s">
         <v>22</v>
       </c>
-      <c r="G277" t="s">
-        <v>151</v>
+      <c r="G277">
+        <v>321456499.180877</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -8652,8 +6861,8 @@
       <c r="F278" t="s">
         <v>23</v>
       </c>
-      <c r="G278" t="s">
-        <v>152</v>
+      <c r="G278">
+        <v>9099011.942017</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8744,8 +6953,8 @@
       <c r="F282" t="s">
         <v>22</v>
       </c>
-      <c r="G282" t="s">
-        <v>153</v>
+      <c r="G282">
+        <v>186272949.641973</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8767,8 +6976,8 @@
       <c r="F283" t="s">
         <v>23</v>
       </c>
-      <c r="G283" t="s">
-        <v>154</v>
+      <c r="G283">
+        <v>48149277.71808</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8813,8 +7022,8 @@
       <c r="F285" t="s">
         <v>22</v>
       </c>
-      <c r="G285" t="s">
-        <v>155</v>
+      <c r="G285">
+        <v>332064290.1216412</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8836,8 +7045,8 @@
       <c r="F286" t="s">
         <v>23</v>
       </c>
-      <c r="G286" t="s">
-        <v>156</v>
+      <c r="G286">
+        <v>9183866.523333002</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8928,8 +7137,8 @@
       <c r="F290" t="s">
         <v>22</v>
       </c>
-      <c r="G290" t="s">
-        <v>157</v>
+      <c r="G290">
+        <v>185166665.276548</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8951,8 +7160,8 @@
       <c r="F291" t="s">
         <v>23</v>
       </c>
-      <c r="G291" t="s">
-        <v>158</v>
+      <c r="G291">
+        <v>50130915.670792</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8997,8 +7206,8 @@
       <c r="F293" t="s">
         <v>22</v>
       </c>
-      <c r="G293" t="s">
-        <v>159</v>
+      <c r="G293">
+        <v>318855304.6498969</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -9020,8 +7229,8 @@
       <c r="F294" t="s">
         <v>23</v>
       </c>
-      <c r="G294" t="s">
-        <v>160</v>
+      <c r="G294">
+        <v>9146056.577735005</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -9112,8 +7321,8 @@
       <c r="F298" t="s">
         <v>22</v>
       </c>
-      <c r="G298" t="s">
-        <v>161</v>
+      <c r="G298">
+        <v>158410348.863066</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -9135,8 +7344,8 @@
       <c r="F299" t="s">
         <v>23</v>
       </c>
-      <c r="G299" t="s">
-        <v>162</v>
+      <c r="G299">
+        <v>41096304.496921</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -9181,8 +7390,8 @@
       <c r="F301" t="s">
         <v>22</v>
       </c>
-      <c r="G301" t="s">
-        <v>163</v>
+      <c r="G301">
+        <v>287398131.4427849</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -9204,8 +7413,8 @@
       <c r="F302" t="s">
         <v>23</v>
       </c>
-      <c r="G302" t="s">
-        <v>164</v>
+      <c r="G302">
+        <v>8116629.637971999</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -9296,8 +7505,8 @@
       <c r="F306" t="s">
         <v>22</v>
       </c>
-      <c r="G306" t="s">
-        <v>165</v>
+      <c r="G306">
+        <v>175490368.468019</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -9319,8 +7528,8 @@
       <c r="F307" t="s">
         <v>23</v>
       </c>
-      <c r="G307" t="s">
-        <v>166</v>
+      <c r="G307">
+        <v>44883969.048371</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -9365,8 +7574,8 @@
       <c r="F309" t="s">
         <v>22</v>
       </c>
-      <c r="G309" t="s">
-        <v>167</v>
+      <c r="G309">
+        <v>325021512.071658</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -9388,8 +7597,8 @@
       <c r="F310" t="s">
         <v>23</v>
       </c>
-      <c r="G310" t="s">
-        <v>168</v>
+      <c r="G310">
+        <v>9492130.562652003</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -9480,8 +7689,8 @@
       <c r="F314" t="s">
         <v>22</v>
       </c>
-      <c r="G314" t="s">
-        <v>169</v>
+      <c r="G314">
+        <v>167501233.605342</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -9503,8 +7712,8 @@
       <c r="F315" t="s">
         <v>23</v>
       </c>
-      <c r="G315" t="s">
-        <v>170</v>
+      <c r="G315">
+        <v>42220360.531263</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -9549,8 +7758,8 @@
       <c r="F317" t="s">
         <v>22</v>
       </c>
-      <c r="G317" t="s">
-        <v>171</v>
+      <c r="G317">
+        <v>318093886.7958969</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -9572,8 +7781,8 @@
       <c r="F318" t="s">
         <v>23</v>
       </c>
-      <c r="G318" t="s">
-        <v>172</v>
+      <c r="G318">
+        <v>9323241.097443003</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -9664,8 +7873,8 @@
       <c r="F322" t="s">
         <v>22</v>
       </c>
-      <c r="G322" t="s">
-        <v>173</v>
+      <c r="G322">
+        <v>169623699.825094</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -9687,8 +7896,8 @@
       <c r="F323" t="s">
         <v>23</v>
       </c>
-      <c r="G323" t="s">
-        <v>174</v>
+      <c r="G323">
+        <v>44363215.843753</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -9733,8 +7942,8 @@
       <c r="F325" t="s">
         <v>22</v>
       </c>
-      <c r="G325" t="s">
-        <v>175</v>
+      <c r="G325">
+        <v>327713065.756177</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -9756,8 +7965,8 @@
       <c r="F326" t="s">
         <v>23</v>
       </c>
-      <c r="G326" t="s">
-        <v>176</v>
+      <c r="G326">
+        <v>9686087.158300001</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -9848,8 +8057,8 @@
       <c r="F330" t="s">
         <v>22</v>
       </c>
-      <c r="G330" t="s">
-        <v>177</v>
+      <c r="G330">
+        <v>156091489.06892</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -9871,8 +8080,8 @@
       <c r="F331" t="s">
         <v>23</v>
       </c>
-      <c r="G331" t="s">
-        <v>178</v>
+      <c r="G331">
+        <v>41591063.828183</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -9917,8 +8126,8 @@
       <c r="F333" t="s">
         <v>22</v>
       </c>
-      <c r="G333" t="s">
-        <v>179</v>
+      <c r="G333">
+        <v>314964911.133961</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -9940,8 +8149,8 @@
       <c r="F334" t="s">
         <v>23</v>
       </c>
-      <c r="G334" t="s">
-        <v>180</v>
+      <c r="G334">
+        <v>9361072.575533999</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -10032,8 +8241,8 @@
       <c r="F338" t="s">
         <v>22</v>
       </c>
-      <c r="G338" t="s">
-        <v>181</v>
+      <c r="G338">
+        <v>154107956.910752</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -10055,8 +8264,8 @@
       <c r="F339" t="s">
         <v>23</v>
       </c>
-      <c r="G339" t="s">
-        <v>182</v>
+      <c r="G339">
+        <v>39506905.185813</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -10101,8 +8310,8 @@
       <c r="F341" t="s">
         <v>22</v>
       </c>
-      <c r="G341" t="s">
-        <v>183</v>
+      <c r="G341">
+        <v>328135773.838962</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -10124,8 +8333,8 @@
       <c r="F342" t="s">
         <v>23</v>
       </c>
-      <c r="G342" t="s">
-        <v>184</v>
+      <c r="G342">
+        <v>9757489.769580998</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -10216,8 +8425,8 @@
       <c r="F346" t="s">
         <v>22</v>
       </c>
-      <c r="G346" t="s">
-        <v>185</v>
+      <c r="G346">
+        <v>156609359.177447</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -10239,8 +8448,8 @@
       <c r="F347" t="s">
         <v>23</v>
       </c>
-      <c r="G347" t="s">
-        <v>186</v>
+      <c r="G347">
+        <v>41365976.67133199</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -10285,8 +8494,8 @@
       <c r="F349" t="s">
         <v>22</v>
       </c>
-      <c r="G349" t="s">
-        <v>187</v>
+      <c r="G349">
+        <v>310493498.8789391</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -10308,8 +8517,8 @@
       <c r="F350" t="s">
         <v>23</v>
       </c>
-      <c r="G350" t="s">
-        <v>188</v>
+      <c r="G350">
+        <v>9828302.940137997</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -10400,8 +8609,8 @@
       <c r="F354" t="s">
         <v>22</v>
       </c>
-      <c r="G354" t="s">
-        <v>189</v>
+      <c r="G354">
+        <v>130107200.609138</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -10423,8 +8632,8 @@
       <c r="F355" t="s">
         <v>23</v>
       </c>
-      <c r="G355" t="s">
-        <v>190</v>
+      <c r="G355">
+        <v>34587957.091282</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -10469,8 +8678,8 @@
       <c r="F357" t="s">
         <v>22</v>
       </c>
-      <c r="G357" t="s">
-        <v>191</v>
+      <c r="G357">
+        <v>314540993.192638</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -10492,8 +8701,8 @@
       <c r="F358" t="s">
         <v>23</v>
       </c>
-      <c r="G358" t="s">
-        <v>192</v>
+      <c r="G358">
+        <v>9552141.829165</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -10584,8 +8793,8 @@
       <c r="F362" t="s">
         <v>22</v>
       </c>
-      <c r="G362" t="s">
-        <v>193</v>
+      <c r="G362">
+        <v>148435372.952428</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -10607,8 +8816,8 @@
       <c r="F363" t="s">
         <v>23</v>
       </c>
-      <c r="G363" t="s">
-        <v>194</v>
+      <c r="G363">
+        <v>41942961.39497</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -10653,8 +8862,8 @@
       <c r="F365" t="s">
         <v>22</v>
       </c>
-      <c r="G365" t="s">
-        <v>195</v>
+      <c r="G365">
+        <v>332620079.2710559</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -10676,8 +8885,8 @@
       <c r="F366" t="s">
         <v>23</v>
       </c>
-      <c r="G366" t="s">
-        <v>196</v>
+      <c r="G366">
+        <v>10041611.927281</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -10722,8 +8931,8 @@
       <c r="F368" t="s">
         <v>22</v>
       </c>
-      <c r="G368" t="s">
-        <v>197</v>
+      <c r="G368">
+        <v>26150283.631139</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -10768,8 +8977,8 @@
       <c r="F370" t="s">
         <v>22</v>
       </c>
-      <c r="G370" t="s">
-        <v>198</v>
+      <c r="G370">
+        <v>144154179.303083</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -10791,8 +9000,8 @@
       <c r="F371" t="s">
         <v>23</v>
       </c>
-      <c r="G371" t="s">
-        <v>199</v>
+      <c r="G371">
+        <v>40078448.487369</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -10837,8 +9046,8 @@
       <c r="F373" t="s">
         <v>22</v>
       </c>
-      <c r="G373" t="s">
-        <v>200</v>
+      <c r="G373">
+        <v>323660119.994589</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -10860,8 +9069,8 @@
       <c r="F374" t="s">
         <v>23</v>
       </c>
-      <c r="G374" t="s">
-        <v>201</v>
+      <c r="G374">
+        <v>9934738.769651001</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -10952,8 +9161,8 @@
       <c r="F378" t="s">
         <v>22</v>
       </c>
-      <c r="G378" t="s">
-        <v>202</v>
+      <c r="G378">
+        <v>149275346.991882</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -10975,8 +9184,8 @@
       <c r="F379" t="s">
         <v>23</v>
       </c>
-      <c r="G379" t="s">
-        <v>203</v>
+      <c r="G379">
+        <v>40799821.822247</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -11021,8 +9230,8 @@
       <c r="F381" t="s">
         <v>22</v>
       </c>
-      <c r="G381" t="s">
-        <v>204</v>
+      <c r="G381">
+        <v>329247549.245306</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -11044,8 +9253,8 @@
       <c r="F382" t="s">
         <v>23</v>
       </c>
-      <c r="G382" t="s">
-        <v>205</v>
+      <c r="G382">
+        <v>10175638.121036</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -11136,8 +9345,8 @@
       <c r="F386" t="s">
         <v>22</v>
       </c>
-      <c r="G386" t="s">
-        <v>206</v>
+      <c r="G386">
+        <v>146861324.031536</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -11159,8 +9368,8 @@
       <c r="F387" t="s">
         <v>23</v>
       </c>
-      <c r="G387" t="s">
-        <v>207</v>
+      <c r="G387">
+        <v>42371736.36778799</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -11205,8 +9414,8 @@
       <c r="F389" t="s">
         <v>22</v>
       </c>
-      <c r="G389" t="s">
-        <v>208</v>
+      <c r="G389">
+        <v>332466353.6879269</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -11228,8 +9437,8 @@
       <c r="F390" t="s">
         <v>23</v>
       </c>
-      <c r="G390" t="s">
-        <v>209</v>
+      <c r="G390">
+        <v>10296153.760562</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -11320,8 +9529,8 @@
       <c r="F394" t="s">
         <v>22</v>
       </c>
-      <c r="G394" t="s">
-        <v>210</v>
+      <c r="G394">
+        <v>135190566.369042</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -11343,8 +9552,8 @@
       <c r="F395" t="s">
         <v>23</v>
       </c>
-      <c r="G395" t="s">
-        <v>211</v>
+      <c r="G395">
+        <v>40147712.639177</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -11389,8 +9598,8 @@
       <c r="F397" t="s">
         <v>22</v>
       </c>
-      <c r="G397" t="s">
-        <v>212</v>
+      <c r="G397">
+        <v>308932372.6160599</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -11412,8 +9621,8 @@
       <c r="F398" t="s">
         <v>23</v>
       </c>
-      <c r="G398" t="s">
-        <v>213</v>
+      <c r="G398">
+        <v>9761283.168801002</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -11504,8 +9713,8 @@
       <c r="F402" t="s">
         <v>22</v>
       </c>
-      <c r="G402" t="s">
-        <v>214</v>
+      <c r="G402">
+        <v>145921157.1669</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -11527,8 +9736,8 @@
       <c r="F403" t="s">
         <v>23</v>
       </c>
-      <c r="G403" t="s">
-        <v>215</v>
+      <c r="G403">
+        <v>43613539.42667</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -11573,8 +9782,8 @@
       <c r="F405" t="s">
         <v>22</v>
       </c>
-      <c r="G405" t="s">
-        <v>216</v>
+      <c r="G405">
+        <v>328372647.8878251</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -11596,8 +9805,8 @@
       <c r="F406" t="s">
         <v>23</v>
       </c>
-      <c r="G406" t="s">
-        <v>217</v>
+      <c r="G406">
+        <v>10551745.12448</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -11688,8 +9897,8 @@
       <c r="F410" t="s">
         <v>22</v>
       </c>
-      <c r="G410" t="s">
-        <v>218</v>
+      <c r="G410">
+        <v>137364009.329248</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -11711,8 +9920,8 @@
       <c r="F411" t="s">
         <v>23</v>
       </c>
-      <c r="G411" t="s">
-        <v>219</v>
+      <c r="G411">
+        <v>39320651.906697</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -11757,8 +9966,8 @@
       <c r="F413" t="s">
         <v>22</v>
       </c>
-      <c r="G413" t="s">
-        <v>220</v>
+      <c r="G413">
+        <v>313469577.0695859</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -11780,8 +9989,8 @@
       <c r="F414" t="s">
         <v>23</v>
       </c>
-      <c r="G414" t="s">
-        <v>221</v>
+      <c r="G414">
+        <v>10050814.909362</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -11826,8 +10035,8 @@
       <c r="F416" t="s">
         <v>22</v>
       </c>
-      <c r="G416" t="s">
-        <v>222</v>
+      <c r="G416">
+        <v>25576416.798554</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -11849,8 +10058,8 @@
       <c r="F417" t="s">
         <v>23</v>
       </c>
-      <c r="G417" t="s">
-        <v>223</v>
+      <c r="G417">
+        <v>2791309.073625</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -11872,8 +10081,8 @@
       <c r="F418" t="s">
         <v>22</v>
       </c>
-      <c r="G418" t="s">
-        <v>224</v>
+      <c r="G418">
+        <v>135942485.736165</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -11895,8 +10104,8 @@
       <c r="F419" t="s">
         <v>23</v>
       </c>
-      <c r="G419" t="s">
-        <v>225</v>
+      <c r="G419">
+        <v>38822550.007544</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -11941,8 +10150,8 @@
       <c r="F421" t="s">
         <v>22</v>
       </c>
-      <c r="G421" t="s">
-        <v>226</v>
+      <c r="G421">
+        <v>319868850.0006981</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -11964,8 +10173,8 @@
       <c r="F422" t="s">
         <v>23</v>
       </c>
-      <c r="G422" t="s">
-        <v>227</v>
+      <c r="G422">
+        <v>10446885.969968</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -12056,8 +10265,8 @@
       <c r="F426" t="s">
         <v>22</v>
       </c>
-      <c r="G426" t="s">
-        <v>228</v>
+      <c r="G426">
+        <v>123806340.789903</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -12079,8 +10288,8 @@
       <c r="F427" t="s">
         <v>23</v>
       </c>
-      <c r="G427" t="s">
-        <v>229</v>
+      <c r="G427">
+        <v>35147763.33404201</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -12125,8 +10334,8 @@
       <c r="F429" t="s">
         <v>22</v>
       </c>
-      <c r="G429" t="s">
-        <v>230</v>
+      <c r="G429">
+        <v>307815727.3610589</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -12148,8 +10357,8 @@
       <c r="F430" t="s">
         <v>23</v>
       </c>
-      <c r="G430" t="s">
-        <v>231</v>
+      <c r="G430">
+        <v>10146046.202479</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -12240,8 +10449,8 @@
       <c r="F434" t="s">
         <v>22</v>
       </c>
-      <c r="G434" t="s">
-        <v>232</v>
+      <c r="G434">
+        <v>133566813.015696</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -12263,8 +10472,8 @@
       <c r="F435" t="s">
         <v>23</v>
       </c>
-      <c r="G435" t="s">
-        <v>233</v>
+      <c r="G435">
+        <v>40555621.369952</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -12309,8 +10518,8 @@
       <c r="F437" t="s">
         <v>22</v>
       </c>
-      <c r="G437" t="s">
-        <v>234</v>
+      <c r="G437">
+        <v>317214674.216709</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -12332,8 +10541,8 @@
       <c r="F438" t="s">
         <v>23</v>
       </c>
-      <c r="G438" t="s">
-        <v>235</v>
+      <c r="G438">
+        <v>10693253.981963</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -12378,8 +10587,8 @@
       <c r="F440" t="s">
         <v>22</v>
       </c>
-      <c r="G440" t="s">
-        <v>236</v>
+      <c r="G440">
+        <v>26097911.978262</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -12424,8 +10633,8 @@
       <c r="F442" t="s">
         <v>22</v>
       </c>
-      <c r="G442" t="s">
-        <v>237</v>
+      <c r="G442">
+        <v>114347557.214662</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -12447,8 +10656,8 @@
       <c r="F443" t="s">
         <v>23</v>
       </c>
-      <c r="G443" t="s">
-        <v>238</v>
+      <c r="G443">
+        <v>35705207.035957</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -12493,8 +10702,8 @@
       <c r="F445" t="s">
         <v>22</v>
       </c>
-      <c r="G445" t="s">
-        <v>239</v>
+      <c r="G445">
+        <v>311043411.0005189</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -12516,8 +10725,8 @@
       <c r="F446" t="s">
         <v>23</v>
       </c>
-      <c r="G446" t="s">
-        <v>240</v>
+      <c r="G446">
+        <v>10792501.98899899</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -12608,8 +10817,8 @@
       <c r="F450" t="s">
         <v>22</v>
       </c>
-      <c r="G450" t="s">
-        <v>241</v>
+      <c r="G450">
+        <v>116054042.024138</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -12631,8 +10840,8 @@
       <c r="F451" t="s">
         <v>23</v>
       </c>
-      <c r="G451" t="s">
-        <v>242</v>
+      <c r="G451">
+        <v>37032672.359861</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -12677,8 +10886,8 @@
       <c r="F453" t="s">
         <v>22</v>
       </c>
-      <c r="G453" t="s">
-        <v>243</v>
+      <c r="G453">
+        <v>300056821.6221729</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -12700,8 +10909,8 @@
       <c r="F454" t="s">
         <v>23</v>
       </c>
-      <c r="G454" t="s">
-        <v>244</v>
+      <c r="G454">
+        <v>10614517.98795</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -12792,8 +11001,8 @@
       <c r="F458" t="s">
         <v>22</v>
       </c>
-      <c r="G458" t="s">
-        <v>245</v>
+      <c r="G458">
+        <v>132739280.899263</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -12815,8 +11024,8 @@
       <c r="F459" t="s">
         <v>23</v>
       </c>
-      <c r="G459" t="s">
-        <v>246</v>
+      <c r="G459">
+        <v>42876250.20231999</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -12861,8 +11070,8 @@
       <c r="F461" t="s">
         <v>22</v>
       </c>
-      <c r="G461" t="s">
-        <v>247</v>
+      <c r="G461">
+        <v>311046010.5653141</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -12884,8 +11093,8 @@
       <c r="F462" t="s">
         <v>23</v>
       </c>
-      <c r="G462" t="s">
-        <v>248</v>
+      <c r="G462">
+        <v>11201687.19669401</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -12976,8 +11185,8 @@
       <c r="F466" t="s">
         <v>22</v>
       </c>
-      <c r="G466" t="s">
-        <v>249</v>
+      <c r="G466">
+        <v>130675524.218356</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -12999,8 +11208,8 @@
       <c r="F467" t="s">
         <v>23</v>
       </c>
-      <c r="G467" t="s">
-        <v>250</v>
+      <c r="G467">
+        <v>42989707.384779</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -13045,8 +11254,8 @@
       <c r="F469" t="s">
         <v>22</v>
       </c>
-      <c r="G469" t="s">
-        <v>251</v>
+      <c r="G469">
+        <v>300289085.62795</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -13068,8 +11277,8 @@
       <c r="F470" t="s">
         <v>23</v>
       </c>
-      <c r="G470" t="s">
-        <v>252</v>
+      <c r="G470">
+        <v>10900617.169142</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -13160,8 +11369,8 @@
       <c r="F474" t="s">
         <v>22</v>
       </c>
-      <c r="G474" t="s">
-        <v>253</v>
+      <c r="G474">
+        <v>132158780.273534</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -13183,8 +11392,8 @@
       <c r="F475" t="s">
         <v>23</v>
       </c>
-      <c r="G475" t="s">
-        <v>254</v>
+      <c r="G475">
+        <v>44284810.297751</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -13229,8 +11438,8 @@
       <c r="F477" t="s">
         <v>22</v>
       </c>
-      <c r="G477" t="s">
-        <v>255</v>
+      <c r="G477">
+        <v>304671252.1035649</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -13252,8 +11461,8 @@
       <c r="F478" t="s">
         <v>23</v>
       </c>
-      <c r="G478" t="s">
-        <v>256</v>
+      <c r="G478">
+        <v>11183708.375786</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -13298,8 +11507,8 @@
       <c r="F480" t="s">
         <v>22</v>
       </c>
-      <c r="G480" t="s">
-        <v>257</v>
+      <c r="G480">
+        <v>26180452.376341</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -13344,8 +11553,8 @@
       <c r="F482" t="s">
         <v>22</v>
       </c>
-      <c r="G482" t="s">
-        <v>258</v>
+      <c r="G482">
+        <v>128828086.761484</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -13367,8 +11576,8 @@
       <c r="F483" t="s">
         <v>23</v>
       </c>
-      <c r="G483" t="s">
-        <v>259</v>
+      <c r="G483">
+        <v>43030408.616618</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -13413,8 +11622,8 @@
       <c r="F485" t="s">
         <v>22</v>
       </c>
-      <c r="G485" t="s">
-        <v>260</v>
+      <c r="G485">
+        <v>297305039.7569699</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -13436,8 +11645,8 @@
       <c r="F486" t="s">
         <v>23</v>
       </c>
-      <c r="G486" t="s">
-        <v>261</v>
+      <c r="G486">
+        <v>11024950.420206</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -13482,8 +11691,8 @@
       <c r="F488" t="s">
         <v>22</v>
       </c>
-      <c r="G488" t="s">
-        <v>262</v>
+      <c r="G488">
+        <v>24693282.818798</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -13528,8 +11737,8 @@
       <c r="F490" t="s">
         <v>22</v>
       </c>
-      <c r="G490" t="s">
-        <v>263</v>
+      <c r="G490">
+        <v>113767111.593107</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -13551,8 +11760,8 @@
       <c r="F491" t="s">
         <v>23</v>
       </c>
-      <c r="G491" t="s">
-        <v>264</v>
+      <c r="G491">
+        <v>38447937.46682701</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -13597,8 +11806,8 @@
       <c r="F493" t="s">
         <v>22</v>
       </c>
-      <c r="G493" t="s">
-        <v>265</v>
+      <c r="G493">
+        <v>274031890.624217</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -13620,8 +11829,8 @@
       <c r="F494" t="s">
         <v>23</v>
       </c>
-      <c r="G494" t="s">
-        <v>266</v>
+      <c r="G494">
+        <v>10162394.893552</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -13712,8 +11921,8 @@
       <c r="F498" t="s">
         <v>22</v>
       </c>
-      <c r="G498" t="s">
-        <v>267</v>
+      <c r="G498">
+        <v>123165415.321632</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -13735,8 +11944,8 @@
       <c r="F499" t="s">
         <v>23</v>
       </c>
-      <c r="G499" t="s">
-        <v>268</v>
+      <c r="G499">
+        <v>40558691.087162</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -13781,8 +11990,8 @@
       <c r="F501" t="s">
         <v>22</v>
       </c>
-      <c r="G501" t="s">
-        <v>269</v>
+      <c r="G501">
+        <v>303373794.3672359</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -13804,8 +12013,8 @@
       <c r="F502" t="s">
         <v>23</v>
       </c>
-      <c r="G502" t="s">
-        <v>270</v>
+      <c r="G502">
+        <v>11502447.501739</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -13896,8 +12105,8 @@
       <c r="F506" t="s">
         <v>22</v>
       </c>
-      <c r="G506" t="s">
-        <v>271</v>
+      <c r="G506">
+        <v>120833683.42463</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -13919,8 +12128,8 @@
       <c r="F507" t="s">
         <v>23</v>
       </c>
-      <c r="G507" t="s">
-        <v>272</v>
+      <c r="G507">
+        <v>41774972.848953</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -13965,8 +12174,8 @@
       <c r="F509" t="s">
         <v>22</v>
       </c>
-      <c r="G509" t="s">
-        <v>273</v>
+      <c r="G509">
+        <v>295043349.5978931</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -13988,8 +12197,8 @@
       <c r="F510" t="s">
         <v>23</v>
       </c>
-      <c r="G510" t="s">
-        <v>274</v>
+      <c r="G510">
+        <v>11270942.996411</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -14034,8 +12243,8 @@
       <c r="F512" t="s">
         <v>22</v>
       </c>
-      <c r="G512" t="s">
-        <v>275</v>
+      <c r="G512">
+        <v>25948711.45977999</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -14080,8 +12289,8 @@
       <c r="F514" t="s">
         <v>22</v>
       </c>
-      <c r="G514" t="s">
-        <v>276</v>
+      <c r="G514">
+        <v>118972887.822878</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -14103,8 +12312,8 @@
       <c r="F515" t="s">
         <v>23</v>
       </c>
-      <c r="G515" t="s">
-        <v>277</v>
+      <c r="G515">
+        <v>38906639.888172</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -14149,8 +12358,8 @@
       <c r="F517" t="s">
         <v>22</v>
       </c>
-      <c r="G517" t="s">
-        <v>278</v>
+      <c r="G517">
+        <v>297658778.2957681</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -14172,8 +12381,8 @@
       <c r="F518" t="s">
         <v>23</v>
       </c>
-      <c r="G518" t="s">
-        <v>279</v>
+      <c r="G518">
+        <v>11520286.477895</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -14218,8 +12427,8 @@
       <c r="F520" t="s">
         <v>22</v>
       </c>
-      <c r="G520" t="s">
-        <v>280</v>
+      <c r="G520">
+        <v>26633122.656841</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -14264,8 +12473,8 @@
       <c r="F522" t="s">
         <v>22</v>
       </c>
-      <c r="G522" t="s">
-        <v>281</v>
+      <c r="G522">
+        <v>109161023.928783</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -14287,8 +12496,8 @@
       <c r="F523" t="s">
         <v>23</v>
       </c>
-      <c r="G523" t="s">
-        <v>282</v>
+      <c r="G523">
+        <v>35322157.066226</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -14333,8 +12542,8 @@
       <c r="F525" t="s">
         <v>22</v>
       </c>
-      <c r="G525" t="s">
-        <v>283</v>
+      <c r="G525">
+        <v>289888128.047164</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -14356,8 +12565,8 @@
       <c r="F526" t="s">
         <v>23</v>
       </c>
-      <c r="G526" t="s">
-        <v>284</v>
+      <c r="G526">
+        <v>11257695.101094</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -14448,8 +12657,8 @@
       <c r="F530" t="s">
         <v>22</v>
       </c>
-      <c r="G530" t="s">
-        <v>285</v>
+      <c r="G530">
+        <v>114745856.124074</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -14471,8 +12680,8 @@
       <c r="F531" t="s">
         <v>23</v>
       </c>
-      <c r="G531" t="s">
-        <v>286</v>
+      <c r="G531">
+        <v>40238092.37792201</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -14517,8 +12726,8 @@
       <c r="F533" t="s">
         <v>22</v>
       </c>
-      <c r="G533" t="s">
-        <v>287</v>
+      <c r="G533">
+        <v>298363610.7769359</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -14540,8 +12749,8 @@
       <c r="F534" t="s">
         <v>23</v>
       </c>
-      <c r="G534" t="s">
-        <v>288</v>
+      <c r="G534">
+        <v>11738211.698725</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -14632,8 +12841,8 @@
       <c r="F538" t="s">
         <v>22</v>
       </c>
-      <c r="G538" t="s">
-        <v>289</v>
+      <c r="G538">
+        <v>109136462.609632</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -14655,8 +12864,8 @@
       <c r="F539" t="s">
         <v>23</v>
       </c>
-      <c r="G539" t="s">
-        <v>290</v>
+      <c r="G539">
+        <v>38444684.57030699</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -14701,8 +12910,8 @@
       <c r="F541" t="s">
         <v>22</v>
       </c>
-      <c r="G541" t="s">
-        <v>291</v>
+      <c r="G541">
+        <v>298415101.591733</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -14724,8 +12933,8 @@
       <c r="F542" t="s">
         <v>23</v>
       </c>
-      <c r="G542" t="s">
-        <v>292</v>
+      <c r="G542">
+        <v>11778234.66757299</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -14770,8 +12979,8 @@
       <c r="F544" t="s">
         <v>22</v>
       </c>
-      <c r="G544" t="s">
-        <v>293</v>
+      <c r="G544">
+        <v>27215916.646827</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -14793,8 +13002,8 @@
       <c r="F545" t="s">
         <v>23</v>
       </c>
-      <c r="G545" t="s">
-        <v>294</v>
+      <c r="G545">
+        <v>4908746.663709999</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -14816,8 +13025,8 @@
       <c r="F546" t="s">
         <v>22</v>
       </c>
-      <c r="G546" t="s">
-        <v>295</v>
+      <c r="G546">
+        <v>113630138.62337</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -14839,8 +13048,8 @@
       <c r="F547" t="s">
         <v>23</v>
       </c>
-      <c r="G547" t="s">
-        <v>296</v>
+      <c r="G547">
+        <v>41195226.959737</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -14885,8 +13094,8 @@
       <c r="F549" t="s">
         <v>22</v>
       </c>
-      <c r="G549" t="s">
-        <v>297</v>
+      <c r="G549">
+        <v>276417070.413143</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -14908,8 +13117,8 @@
       <c r="F550" t="s">
         <v>23</v>
       </c>
-      <c r="G550" t="s">
-        <v>298</v>
+      <c r="G550">
+        <v>11500356.778335</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -15000,8 +13209,8 @@
       <c r="F554" t="s">
         <v>22</v>
       </c>
-      <c r="G554" t="s">
-        <v>299</v>
+      <c r="G554">
+        <v>107214860.619843</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -15023,8 +13232,8 @@
       <c r="F555" t="s">
         <v>23</v>
       </c>
-      <c r="G555" t="s">
-        <v>300</v>
+      <c r="G555">
+        <v>38063825.73483</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -15069,8 +13278,8 @@
       <c r="F557" t="s">
         <v>22</v>
       </c>
-      <c r="G557" t="s">
-        <v>301</v>
+      <c r="G557">
+        <v>303762136.6756829</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -15092,8 +13301,8 @@
       <c r="F558" t="s">
         <v>23</v>
       </c>
-      <c r="G558" t="s">
-        <v>302</v>
+      <c r="G558">
+        <v>11940231.302988</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -15184,8 +13393,8 @@
       <c r="F562" t="s">
         <v>22</v>
       </c>
-      <c r="G562" t="s">
-        <v>303</v>
+      <c r="G562">
+        <v>113187774.692123</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -15207,8 +13416,8 @@
       <c r="F563" t="s">
         <v>23</v>
       </c>
-      <c r="G563" t="s">
-        <v>304</v>
+      <c r="G563">
+        <v>40705178.237537</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -15253,8 +13462,8 @@
       <c r="F565" t="s">
         <v>22</v>
       </c>
-      <c r="G565" t="s">
-        <v>305</v>
+      <c r="G565">
+        <v>293456995.534147</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -15276,8 +13485,8 @@
       <c r="F566" t="s">
         <v>23</v>
       </c>
-      <c r="G566" t="s">
-        <v>306</v>
+      <c r="G566">
+        <v>11518144.072793</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -15322,8 +13531,8 @@
       <c r="F568" t="s">
         <v>22</v>
       </c>
-      <c r="G568" t="s">
-        <v>307</v>
+      <c r="G568">
+        <v>26308985.28434401</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -15368,8 +13577,8 @@
       <c r="F570" t="s">
         <v>22</v>
       </c>
-      <c r="G570" t="s">
-        <v>308</v>
+      <c r="G570">
+        <v>112086250.787194</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -15391,8 +13600,8 @@
       <c r="F571" t="s">
         <v>23</v>
       </c>
-      <c r="G571" t="s">
-        <v>309</v>
+      <c r="G571">
+        <v>41536255.180801</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -15437,8 +13646,8 @@
       <c r="F573" t="s">
         <v>22</v>
       </c>
-      <c r="G573" t="s">
-        <v>310</v>
+      <c r="G573">
+        <v>293674417.948898</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -15460,8 +13669,8 @@
       <c r="F574" t="s">
         <v>23</v>
       </c>
-      <c r="G574" t="s">
-        <v>311</v>
+      <c r="G574">
+        <v>11798488.478706</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -15552,8 +13761,8 @@
       <c r="F578" t="s">
         <v>22</v>
       </c>
-      <c r="G578" t="s">
-        <v>312</v>
+      <c r="G578">
+        <v>107846208.517069</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -15575,8 +13784,8 @@
       <c r="F579" t="s">
         <v>23</v>
       </c>
-      <c r="G579" t="s">
-        <v>313</v>
+      <c r="G579">
+        <v>42113286.416015</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -15621,8 +13830,8 @@
       <c r="F581" t="s">
         <v>22</v>
       </c>
-      <c r="G581" t="s">
-        <v>314</v>
+      <c r="G581">
+        <v>296096477.431025</v>
       </c>
     </row>
     <row r="582" spans="1:7">
@@ -15644,8 +13853,8 @@
       <c r="F582" t="s">
         <v>23</v>
       </c>
-      <c r="G582" t="s">
-        <v>315</v>
+      <c r="G582">
+        <v>12179228.04412401</v>
       </c>
     </row>
     <row r="583" spans="1:7">
@@ -15736,8 +13945,8 @@
       <c r="F586" t="s">
         <v>22</v>
       </c>
-      <c r="G586" t="s">
-        <v>316</v>
+      <c r="G586">
+        <v>100353786.836458</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -15759,8 +13968,8 @@
       <c r="F587" t="s">
         <v>23</v>
       </c>
-      <c r="G587" t="s">
-        <v>317</v>
+      <c r="G587">
+        <v>38741320.727371</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -15805,8 +14014,8 @@
       <c r="F589" t="s">
         <v>22</v>
       </c>
-      <c r="G589" t="s">
-        <v>318</v>
+      <c r="G589">
+        <v>268961361.532118</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -15828,8 +14037,8 @@
       <c r="F590" t="s">
         <v>23</v>
       </c>
-      <c r="G590" t="s">
-        <v>319</v>
+      <c r="G590">
+        <v>11266046.295754</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -15920,8 +14129,8 @@
       <c r="F594" t="s">
         <v>22</v>
       </c>
-      <c r="G594" t="s">
-        <v>320</v>
+      <c r="G594">
+        <v>110289443.260114</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -15943,8 +14152,8 @@
       <c r="F595" t="s">
         <v>23</v>
       </c>
-      <c r="G595" t="s">
-        <v>321</v>
+      <c r="G595">
+        <v>42350167.641521</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -15989,8 +14198,8 @@
       <c r="F597" t="s">
         <v>22</v>
       </c>
-      <c r="G597" t="s">
-        <v>322</v>
+      <c r="G597">
+        <v>299960839.667507</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -16012,8 +14221,8 @@
       <c r="F598" t="s">
         <v>23</v>
       </c>
-      <c r="G598" t="s">
-        <v>323</v>
+      <c r="G598">
+        <v>12837291.99214499</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -16104,8 +14313,8 @@
       <c r="F602" t="s">
         <v>22</v>
       </c>
-      <c r="G602" t="s">
-        <v>324</v>
+      <c r="G602">
+        <v>110514276.04115</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -16127,8 +14336,8 @@
       <c r="F603" t="s">
         <v>23</v>
       </c>
-      <c r="G603" t="s">
-        <v>325</v>
+      <c r="G603">
+        <v>44227659.692227</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -16173,8 +14382,8 @@
       <c r="F605" t="s">
         <v>22</v>
       </c>
-      <c r="G605" t="s">
-        <v>326</v>
+      <c r="G605">
+        <v>288582622.625249</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -16196,8 +14405,8 @@
       <c r="F606" t="s">
         <v>23</v>
       </c>
-      <c r="G606" t="s">
-        <v>327</v>
+      <c r="G606">
+        <v>12598256.30531401</v>
       </c>
     </row>
     <row r="607" spans="1:7">
@@ -16242,8 +14451,8 @@
       <c r="F608" t="s">
         <v>22</v>
       </c>
-      <c r="G608" t="s">
-        <v>328</v>
+      <c r="G608">
+        <v>27017519.453675</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -16288,8 +14497,8 @@
       <c r="F610" t="s">
         <v>22</v>
       </c>
-      <c r="G610" t="s">
-        <v>329</v>
+      <c r="G610">
+        <v>116217079.67607</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -16311,8 +14520,8 @@
       <c r="F611" t="s">
         <v>23</v>
       </c>
-      <c r="G611" t="s">
-        <v>330</v>
+      <c r="G611">
+        <v>45565727.487455</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -16357,8 +14566,8 @@
       <c r="F613" t="s">
         <v>22</v>
       </c>
-      <c r="G613" t="s">
-        <v>331</v>
+      <c r="G613">
+        <v>294854927.9110841</v>
       </c>
     </row>
     <row r="614" spans="1:7">
@@ -16380,8 +14589,8 @@
       <c r="F614" t="s">
         <v>23</v>
       </c>
-      <c r="G614" t="s">
-        <v>332</v>
+      <c r="G614">
+        <v>12984973.821307</v>
       </c>
     </row>
     <row r="615" spans="1:7">
@@ -16472,8 +14681,8 @@
       <c r="F618" t="s">
         <v>22</v>
       </c>
-      <c r="G618" t="s">
-        <v>333</v>
+      <c r="G618">
+        <v>112379161.95969</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -16495,8 +14704,8 @@
       <c r="F619" t="s">
         <v>23</v>
       </c>
-      <c r="G619" t="s">
-        <v>334</v>
+      <c r="G619">
+        <v>44049253.402836</v>
       </c>
     </row>
     <row r="620" spans="1:7">
@@ -16541,8 +14750,8 @@
       <c r="F621" t="s">
         <v>22</v>
       </c>
-      <c r="G621" t="s">
-        <v>335</v>
+      <c r="G621">
+        <v>285952607.3841201</v>
       </c>
     </row>
     <row r="622" spans="1:7">
@@ -16564,8 +14773,8 @@
       <c r="F622" t="s">
         <v>23</v>
       </c>
-      <c r="G622" t="s">
-        <v>336</v>
+      <c r="G622">
+        <v>12754164.208311</v>
       </c>
     </row>
     <row r="623" spans="1:7">
@@ -16656,8 +14865,8 @@
       <c r="F626" t="s">
         <v>22</v>
       </c>
-      <c r="G626" t="s">
-        <v>337</v>
+      <c r="G626">
+        <v>115113151.020361</v>
       </c>
     </row>
     <row r="627" spans="1:7">
@@ -16679,8 +14888,8 @@
       <c r="F627" t="s">
         <v>23</v>
       </c>
-      <c r="G627" t="s">
-        <v>338</v>
+      <c r="G627">
+        <v>45970676.340063</v>
       </c>
     </row>
     <row r="628" spans="1:7">
@@ -16725,8 +14934,8 @@
       <c r="F629" t="s">
         <v>22</v>
       </c>
-      <c r="G629" t="s">
-        <v>339</v>
+      <c r="G629">
+        <v>293287621.237602</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -16748,8 +14957,8 @@
       <c r="F630" t="s">
         <v>23</v>
       </c>
-      <c r="G630" t="s">
-        <v>340</v>
+      <c r="G630">
+        <v>13482203.36262401</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -16840,8 +15049,8 @@
       <c r="F634" t="s">
         <v>22</v>
       </c>
-      <c r="G634" t="s">
-        <v>341</v>
+      <c r="G634">
+        <v>116125580.204369</v>
       </c>
     </row>
     <row r="635" spans="1:7">
@@ -16863,8 +15072,8 @@
       <c r="F635" t="s">
         <v>23</v>
       </c>
-      <c r="G635" t="s">
-        <v>342</v>
+      <c r="G635">
+        <v>46294945.886173</v>
       </c>
     </row>
     <row r="636" spans="1:7">
@@ -16909,8 +15118,8 @@
       <c r="F637" t="s">
         <v>22</v>
       </c>
-      <c r="G637" t="s">
-        <v>343</v>
+      <c r="G637">
+        <v>288267371.0917211</v>
       </c>
     </row>
     <row r="638" spans="1:7">
@@ -16932,8 +15141,8 @@
       <c r="F638" t="s">
         <v>23</v>
       </c>
-      <c r="G638" t="s">
-        <v>344</v>
+      <c r="G638">
+        <v>13329504.45905</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -17024,8 +15233,8 @@
       <c r="F642" t="s">
         <v>22</v>
       </c>
-      <c r="G642" t="s">
-        <v>345</v>
+      <c r="G642">
+        <v>111711056.174447</v>
       </c>
     </row>
     <row r="643" spans="1:7">
@@ -17047,8 +15256,8 @@
       <c r="F643" t="s">
         <v>23</v>
       </c>
-      <c r="G643" t="s">
-        <v>346</v>
+      <c r="G643">
+        <v>44311807.726968</v>
       </c>
     </row>
     <row r="644" spans="1:7">
@@ -17093,8 +15302,8 @@
       <c r="F645" t="s">
         <v>22</v>
       </c>
-      <c r="G645" t="s">
-        <v>347</v>
+      <c r="G645">
+        <v>283753710.360589</v>
       </c>
     </row>
     <row r="646" spans="1:7">
@@ -17116,8 +15325,8 @@
       <c r="F646" t="s">
         <v>23</v>
       </c>
-      <c r="G646" t="s">
-        <v>348</v>
+      <c r="G646">
+        <v>12955267.12506</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -17208,8 +15417,8 @@
       <c r="F650" t="s">
         <v>22</v>
       </c>
-      <c r="G650" t="s">
-        <v>349</v>
+      <c r="G650">
+        <v>115940522.985206</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -17231,8 +15440,8 @@
       <c r="F651" t="s">
         <v>23</v>
       </c>
-      <c r="G651" t="s">
-        <v>350</v>
+      <c r="G651">
+        <v>45952553.873252</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -17277,8 +15486,8 @@
       <c r="F653" t="s">
         <v>22</v>
       </c>
-      <c r="G653" t="s">
-        <v>351</v>
+      <c r="G653">
+        <v>292870138.718734</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -17300,8 +15509,8 @@
       <c r="F654" t="s">
         <v>23</v>
       </c>
-      <c r="G654" t="s">
-        <v>352</v>
+      <c r="G654">
+        <v>14143316.253215</v>
       </c>
     </row>
     <row r="655" spans="1:7">
@@ -17392,8 +15601,8 @@
       <c r="F658" t="s">
         <v>22</v>
       </c>
-      <c r="G658" t="s">
-        <v>353</v>
+      <c r="G658">
+        <v>106568389.606116</v>
       </c>
     </row>
     <row r="659" spans="1:7">
@@ -17415,8 +15624,8 @@
       <c r="F659" t="s">
         <v>23</v>
       </c>
-      <c r="G659" t="s">
-        <v>354</v>
+      <c r="G659">
+        <v>43283387.84328</v>
       </c>
     </row>
     <row r="660" spans="1:7">
@@ -17461,8 +15670,8 @@
       <c r="F661" t="s">
         <v>22</v>
       </c>
-      <c r="G661" t="s">
-        <v>355</v>
+      <c r="G661">
+        <v>286048531.26395</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -17484,8 +15693,8 @@
       <c r="F662" t="s">
         <v>23</v>
       </c>
-      <c r="G662" t="s">
-        <v>356</v>
+      <c r="G662">
+        <v>13755857.262307</v>
       </c>
     </row>
     <row r="663" spans="1:7">
@@ -17576,8 +15785,8 @@
       <c r="F666" t="s">
         <v>22</v>
       </c>
-      <c r="G666" t="s">
-        <v>357</v>
+      <c r="G666">
+        <v>112857650.223962</v>
       </c>
     </row>
     <row r="667" spans="1:7">
@@ -17599,8 +15808,8 @@
       <c r="F667" t="s">
         <v>23</v>
       </c>
-      <c r="G667" t="s">
-        <v>358</v>
+      <c r="G667">
+        <v>46728294.552919</v>
       </c>
     </row>
     <row r="668" spans="1:7">
@@ -17645,8 +15854,8 @@
       <c r="F669" t="s">
         <v>22</v>
       </c>
-      <c r="G669" t="s">
-        <v>359</v>
+      <c r="G669">
+        <v>293345892.0968199</v>
       </c>
     </row>
     <row r="670" spans="1:7">
@@ -17668,8 +15877,8 @@
       <c r="F670" t="s">
         <v>23</v>
       </c>
-      <c r="G670" t="s">
-        <v>360</v>
+      <c r="G670">
+        <v>14759814.984924</v>
       </c>
     </row>
     <row r="671" spans="1:7">
@@ -17714,8 +15923,8 @@
       <c r="F672" t="s">
         <v>22</v>
       </c>
-      <c r="G672" t="s">
-        <v>361</v>
+      <c r="G672">
+        <v>27011549.114183</v>
       </c>
     </row>
     <row r="673" spans="1:7">
@@ -17760,8 +15969,8 @@
       <c r="F674" t="s">
         <v>22</v>
       </c>
-      <c r="G674" t="s">
-        <v>362</v>
+      <c r="G674">
+        <v>113177311.285667</v>
       </c>
     </row>
     <row r="675" spans="1:7">
@@ -17783,8 +15992,8 @@
       <c r="F675" t="s">
         <v>23</v>
       </c>
-      <c r="G675" t="s">
-        <v>363</v>
+      <c r="G675">
+        <v>46704344.59866799</v>
       </c>
     </row>
     <row r="676" spans="1:7">
@@ -17829,8 +16038,8 @@
       <c r="F677" t="s">
         <v>22</v>
       </c>
-      <c r="G677" t="s">
-        <v>364</v>
+      <c r="G677">
+        <v>288830425.1819119</v>
       </c>
     </row>
     <row r="678" spans="1:7">
@@ -17852,8 +16061,8 @@
       <c r="F678" t="s">
         <v>23</v>
       </c>
-      <c r="G678" t="s">
-        <v>365</v>
+      <c r="G678">
+        <v>14708500.552868</v>
       </c>
     </row>
     <row r="679" spans="1:7">
@@ -17944,8 +16153,8 @@
       <c r="F682" t="s">
         <v>22</v>
       </c>
-      <c r="G682" t="s">
-        <v>366</v>
+      <c r="G682">
+        <v>100408061.62551</v>
       </c>
     </row>
     <row r="683" spans="1:7">
@@ -17967,8 +16176,8 @@
       <c r="F683" t="s">
         <v>23</v>
       </c>
-      <c r="G683" t="s">
-        <v>367</v>
+      <c r="G683">
+        <v>42328764.006399</v>
       </c>
     </row>
     <row r="684" spans="1:7">
@@ -18013,8 +16222,8 @@
       <c r="F685" t="s">
         <v>22</v>
       </c>
-      <c r="G685" t="s">
-        <v>368</v>
+      <c r="G685">
+        <v>262977141.8006701</v>
       </c>
     </row>
     <row r="686" spans="1:7">
@@ -18036,8 +16245,8 @@
       <c r="F686" t="s">
         <v>23</v>
       </c>
-      <c r="G686" t="s">
-        <v>369</v>
+      <c r="G686">
+        <v>13648368.581608</v>
       </c>
     </row>
     <row r="687" spans="1:7">
@@ -18128,8 +16337,8 @@
       <c r="F690" t="s">
         <v>22</v>
       </c>
-      <c r="G690" t="s">
-        <v>370</v>
+      <c r="G690">
+        <v>101877917.847058</v>
       </c>
     </row>
     <row r="691" spans="1:7">
@@ -18151,8 +16360,8 @@
       <c r="F691" t="s">
         <v>23</v>
       </c>
-      <c r="G691" t="s">
-        <v>371</v>
+      <c r="G691">
+        <v>44235889.07225</v>
       </c>
     </row>
     <row r="692" spans="1:7">
@@ -18197,8 +16406,8 @@
       <c r="F693" t="s">
         <v>22</v>
       </c>
-      <c r="G693" t="s">
-        <v>372</v>
+      <c r="G693">
+        <v>294803499.0855551</v>
       </c>
     </row>
     <row r="694" spans="1:7">
@@ -18220,8 +16429,8 @@
       <c r="F694" t="s">
         <v>23</v>
       </c>
-      <c r="G694" t="s">
-        <v>373</v>
+      <c r="G694">
+        <v>15781751.389101</v>
       </c>
     </row>
     <row r="695" spans="1:7">
@@ -18312,8 +16521,8 @@
       <c r="F698" t="s">
         <v>22</v>
       </c>
-      <c r="G698" t="s">
-        <v>374</v>
+      <c r="G698">
+        <v>112969456.232123</v>
       </c>
     </row>
     <row r="699" spans="1:7">
@@ -18335,8 +16544,8 @@
       <c r="F699" t="s">
         <v>23</v>
       </c>
-      <c r="G699" t="s">
-        <v>375</v>
+      <c r="G699">
+        <v>46465743.965084</v>
       </c>
     </row>
     <row r="700" spans="1:7">
@@ -18381,8 +16590,8 @@
       <c r="F701" t="s">
         <v>22</v>
       </c>
-      <c r="G701" t="s">
-        <v>376</v>
+      <c r="G701">
+        <v>287778702.640092</v>
       </c>
     </row>
     <row r="702" spans="1:7">
@@ -18404,8 +16613,8 @@
       <c r="F702" t="s">
         <v>23</v>
       </c>
-      <c r="G702" t="s">
-        <v>377</v>
+      <c r="G702">
+        <v>15375701.328627</v>
       </c>
     </row>
     <row r="703" spans="1:7">
@@ -18450,8 +16659,8 @@
       <c r="F704" t="s">
         <v>22</v>
       </c>
-      <c r="G704" t="s">
-        <v>378</v>
+      <c r="G704">
+        <v>25606736.555311</v>
       </c>
     </row>
     <row r="705" spans="1:7">
@@ -18496,8 +16705,8 @@
       <c r="F706" t="s">
         <v>22</v>
       </c>
-      <c r="G706" t="s">
-        <v>379</v>
+      <c r="G706">
+        <v>117130602.199462</v>
       </c>
     </row>
     <row r="707" spans="1:7">
@@ -18519,8 +16728,8 @@
       <c r="F707" t="s">
         <v>23</v>
       </c>
-      <c r="G707" t="s">
-        <v>380</v>
+      <c r="G707">
+        <v>45003423.359268</v>
       </c>
     </row>
     <row r="708" spans="1:7">
@@ -18565,8 +16774,8 @@
       <c r="F709" t="s">
         <v>22</v>
       </c>
-      <c r="G709" t="s">
-        <v>381</v>
+      <c r="G709">
+        <v>292486305.8163511</v>
       </c>
     </row>
     <row r="710" spans="1:7">
@@ -18588,8 +16797,8 @@
       <c r="F710" t="s">
         <v>23</v>
       </c>
-      <c r="G710" t="s">
-        <v>382</v>
+      <c r="G710">
+        <v>15598860.181963</v>
       </c>
     </row>
     <row r="711" spans="1:7">
@@ -18680,8 +16889,8 @@
       <c r="F714" t="s">
         <v>22</v>
       </c>
-      <c r="G714" t="s">
-        <v>383</v>
+      <c r="G714">
+        <v>109720004.017243</v>
       </c>
     </row>
     <row r="715" spans="1:7">
@@ -18703,8 +16912,8 @@
       <c r="F715" t="s">
         <v>23</v>
       </c>
-      <c r="G715" t="s">
-        <v>384</v>
+      <c r="G715">
+        <v>43143701.71283101</v>
       </c>
     </row>
     <row r="716" spans="1:7">
@@ -18749,8 +16958,8 @@
       <c r="F717" t="s">
         <v>22</v>
       </c>
-      <c r="G717" t="s">
-        <v>385</v>
+      <c r="G717">
+        <v>283408531.104261</v>
       </c>
     </row>
     <row r="718" spans="1:7">
@@ -18772,8 +16981,8 @@
       <c r="F718" t="s">
         <v>23</v>
       </c>
-      <c r="G718" t="s">
-        <v>386</v>
+      <c r="G718">
+        <v>15187079.66498101</v>
       </c>
     </row>
     <row r="719" spans="1:7">
@@ -18864,8 +17073,8 @@
       <c r="F722" t="s">
         <v>22</v>
       </c>
-      <c r="G722" t="s">
-        <v>387</v>
+      <c r="G722">
+        <v>121174445.64066</v>
       </c>
     </row>
     <row r="723" spans="1:7">
@@ -18887,8 +17096,8 @@
       <c r="F723" t="s">
         <v>23</v>
       </c>
-      <c r="G723" t="s">
-        <v>388</v>
+      <c r="G723">
+        <v>49229007.287163</v>
       </c>
     </row>
     <row r="724" spans="1:7">
@@ -18933,8 +17142,8 @@
       <c r="F725" t="s">
         <v>22</v>
       </c>
-      <c r="G725" t="s">
-        <v>389</v>
+      <c r="G725">
+        <v>289811987.435712</v>
       </c>
     </row>
     <row r="726" spans="1:7">
@@ -18956,8 +17165,8 @@
       <c r="F726" t="s">
         <v>23</v>
       </c>
-      <c r="G726" t="s">
-        <v>390</v>
+      <c r="G726">
+        <v>15205652.261021</v>
       </c>
     </row>
     <row r="727" spans="1:7">
@@ -19048,8 +17257,8 @@
       <c r="F730" t="s">
         <v>22</v>
       </c>
-      <c r="G730" t="s">
-        <v>391</v>
+      <c r="G730">
+        <v>123307636.889838</v>
       </c>
     </row>
     <row r="731" spans="1:7">
@@ -19071,8 +17280,8 @@
       <c r="F731" t="s">
         <v>23</v>
       </c>
-      <c r="G731" t="s">
-        <v>392</v>
+      <c r="G731">
+        <v>51147490.746221</v>
       </c>
     </row>
     <row r="732" spans="1:7">
@@ -19117,8 +17326,8 @@
       <c r="F733" t="s">
         <v>22</v>
       </c>
-      <c r="G733" t="s">
-        <v>393</v>
+      <c r="G733">
+        <v>289730884.31574</v>
       </c>
     </row>
     <row r="734" spans="1:7">
@@ -19140,8 +17349,8 @@
       <c r="F734" t="s">
         <v>23</v>
       </c>
-      <c r="G734" t="s">
-        <v>394</v>
+      <c r="G734">
+        <v>15051695.12620899</v>
       </c>
     </row>
     <row r="735" spans="1:7">
@@ -19232,8 +17441,8 @@
       <c r="F738" t="s">
         <v>22</v>
       </c>
-      <c r="G738" t="s">
-        <v>395</v>
+      <c r="G738">
+        <v>120441528.836559</v>
       </c>
     </row>
     <row r="739" spans="1:7">
@@ -19255,8 +17464,8 @@
       <c r="F739" t="s">
         <v>23</v>
       </c>
-      <c r="G739" t="s">
-        <v>396</v>
+      <c r="G739">
+        <v>50452516.488659</v>
       </c>
     </row>
     <row r="740" spans="1:7">
@@ -19301,8 +17510,8 @@
       <c r="F741" t="s">
         <v>22</v>
       </c>
-      <c r="G741" t="s">
-        <v>397</v>
+      <c r="G741">
+        <v>281534467.00067</v>
       </c>
     </row>
     <row r="742" spans="1:7">
@@ -19324,8 +17533,8 @@
       <c r="F742" t="s">
         <v>23</v>
       </c>
-      <c r="G742" t="s">
-        <v>398</v>
+      <c r="G742">
+        <v>14438039.453112</v>
       </c>
     </row>
     <row r="743" spans="1:7">
@@ -19416,8 +17625,8 @@
       <c r="F746" t="s">
         <v>22</v>
       </c>
-      <c r="G746" t="s">
-        <v>399</v>
+      <c r="G746">
+        <v>115298447.212446</v>
       </c>
     </row>
     <row r="747" spans="1:7">
@@ -19439,8 +17648,8 @@
       <c r="F747" t="s">
         <v>23</v>
       </c>
-      <c r="G747" t="s">
-        <v>400</v>
+      <c r="G747">
+        <v>49586306.180121</v>
       </c>
     </row>
     <row r="748" spans="1:7">
@@ -19485,8 +17694,8 @@
       <c r="F749" t="s">
         <v>22</v>
       </c>
-      <c r="G749" t="s">
-        <v>401</v>
+      <c r="G749">
+        <v>289642428.5988381</v>
       </c>
     </row>
     <row r="750" spans="1:7">
@@ -19508,8 +17717,8 @@
       <c r="F750" t="s">
         <v>23</v>
       </c>
-      <c r="G750" t="s">
-        <v>402</v>
+      <c r="G750">
+        <v>14683287.25888</v>
       </c>
     </row>
     <row r="751" spans="1:7">
@@ -19600,8 +17809,8 @@
       <c r="F754" t="s">
         <v>22</v>
       </c>
-      <c r="G754" t="s">
-        <v>403</v>
+      <c r="G754">
+        <v>105630621.266826</v>
       </c>
     </row>
     <row r="755" spans="1:7">
@@ -19623,8 +17832,8 @@
       <c r="F755" t="s">
         <v>23</v>
       </c>
-      <c r="G755" t="s">
-        <v>404</v>
+      <c r="G755">
+        <v>46341443.44414899</v>
       </c>
     </row>
     <row r="756" spans="1:7">
@@ -19669,8 +17878,8 @@
       <c r="F757" t="s">
         <v>22</v>
       </c>
-      <c r="G757" t="s">
-        <v>405</v>
+      <c r="G757">
+        <v>281726882.640647</v>
       </c>
     </row>
     <row r="758" spans="1:7">
@@ -19692,8 +17901,8 @@
       <c r="F758" t="s">
         <v>23</v>
       </c>
-      <c r="G758" t="s">
-        <v>406</v>
+      <c r="G758">
+        <v>14447003.248786</v>
       </c>
     </row>
     <row r="759" spans="1:7">
@@ -19784,8 +17993,8 @@
       <c r="F762" t="s">
         <v>22</v>
       </c>
-      <c r="G762" t="s">
-        <v>407</v>
+      <c r="G762">
+        <v>112595853.009522</v>
       </c>
     </row>
     <row r="763" spans="1:7">
@@ -19807,8 +18016,8 @@
       <c r="F763" t="s">
         <v>23</v>
       </c>
-      <c r="G763" t="s">
-        <v>408</v>
+      <c r="G763">
+        <v>50386805.708438</v>
       </c>
     </row>
     <row r="764" spans="1:7">
@@ -19853,8 +18062,8 @@
       <c r="F765" t="s">
         <v>22</v>
       </c>
-      <c r="G765" t="s">
-        <v>409</v>
+      <c r="G765">
+        <v>283430027.591885</v>
       </c>
     </row>
     <row r="766" spans="1:7">
@@ -19876,8 +18085,8 @@
       <c r="F766" t="s">
         <v>23</v>
       </c>
-      <c r="G766" t="s">
-        <v>410</v>
+      <c r="G766">
+        <v>13969642.187082</v>
       </c>
     </row>
     <row r="767" spans="1:7">
@@ -19968,8 +18177,8 @@
       <c r="F770" t="s">
         <v>22</v>
       </c>
-      <c r="G770" t="s">
-        <v>411</v>
+      <c r="G770">
+        <v>109567603.497229</v>
       </c>
     </row>
     <row r="771" spans="1:7">
@@ -19991,8 +18200,8 @@
       <c r="F771" t="s">
         <v>23</v>
       </c>
-      <c r="G771" t="s">
-        <v>412</v>
+      <c r="G771">
+        <v>50020201.227683</v>
       </c>
     </row>
     <row r="772" spans="1:7">
@@ -20037,8 +18246,8 @@
       <c r="F773" t="s">
         <v>22</v>
       </c>
-      <c r="G773" t="s">
-        <v>413</v>
+      <c r="G773">
+        <v>277660907.997601</v>
       </c>
     </row>
     <row r="774" spans="1:7">
@@ -20060,8 +18269,8 @@
       <c r="F774" t="s">
         <v>23</v>
       </c>
-      <c r="G774" t="s">
-        <v>414</v>
+      <c r="G774">
+        <v>13994438.227198</v>
       </c>
     </row>
     <row r="775" spans="1:7">
@@ -20152,8 +18361,8 @@
       <c r="F778" t="s">
         <v>22</v>
       </c>
-      <c r="G778" t="s">
-        <v>415</v>
+      <c r="G778">
+        <v>101487877.393025</v>
       </c>
     </row>
     <row r="779" spans="1:7">
@@ -20175,8 +18384,8 @@
       <c r="F779" t="s">
         <v>23</v>
       </c>
-      <c r="G779" t="s">
-        <v>416</v>
+      <c r="G779">
+        <v>45503442.580918</v>
       </c>
     </row>
     <row r="780" spans="1:7">
@@ -20221,8 +18430,8 @@
       <c r="F781" t="s">
         <v>22</v>
       </c>
-      <c r="G781" t="s">
-        <v>417</v>
+      <c r="G781">
+        <v>261680520.9448379</v>
       </c>
     </row>
     <row r="782" spans="1:7">
@@ -20244,8 +18453,8 @@
       <c r="F782" t="s">
         <v>23</v>
       </c>
-      <c r="G782" t="s">
-        <v>418</v>
+      <c r="G782">
+        <v>13508103.298443</v>
       </c>
     </row>
     <row r="783" spans="1:7">
@@ -20313,8 +18522,8 @@
       <c r="F785" t="s">
         <v>23</v>
       </c>
-      <c r="G785" t="s">
-        <v>419</v>
+      <c r="G785">
+        <v>4800887.364284001</v>
       </c>
     </row>
     <row r="786" spans="1:7">
@@ -20336,8 +18545,8 @@
       <c r="F786" t="s">
         <v>22</v>
       </c>
-      <c r="G786" t="s">
-        <v>420</v>
+      <c r="G786">
+        <v>111857216.87056</v>
       </c>
     </row>
     <row r="787" spans="1:7">
@@ -20359,8 +18568,8 @@
       <c r="F787" t="s">
         <v>23</v>
       </c>
-      <c r="G787" t="s">
-        <v>421</v>
+      <c r="G787">
+        <v>50565023.432708</v>
       </c>
     </row>
     <row r="788" spans="1:7">
@@ -20405,8 +18614,8 @@
       <c r="F789" t="s">
         <v>22</v>
       </c>
-      <c r="G789" t="s">
-        <v>422</v>
+      <c r="G789">
+        <v>282808888.714222</v>
       </c>
     </row>
     <row r="790" spans="1:7">
@@ -20428,8 +18637,8 @@
       <c r="F790" t="s">
         <v>23</v>
       </c>
-      <c r="G790" t="s">
-        <v>423</v>
+      <c r="G790">
+        <v>14421674.50633599</v>
       </c>
     </row>
     <row r="791" spans="1:7">
@@ -20497,8 +18706,8 @@
       <c r="F793" t="s">
         <v>23</v>
       </c>
-      <c r="G793" t="s">
-        <v>424</v>
+      <c r="G793">
+        <v>5345416.217377001</v>
       </c>
     </row>
     <row r="794" spans="1:7">
@@ -20520,8 +18729,8 @@
       <c r="F794" t="s">
         <v>22</v>
       </c>
-      <c r="G794" t="s">
-        <v>425</v>
+      <c r="G794">
+        <v>102051620.012184</v>
       </c>
     </row>
     <row r="795" spans="1:7">
@@ -20543,8 +18752,8 @@
       <c r="F795" t="s">
         <v>23</v>
       </c>
-      <c r="G795" t="s">
-        <v>426</v>
+      <c r="G795">
+        <v>47768826.417547</v>
       </c>
     </row>
     <row r="796" spans="1:7">
@@ -20589,8 +18798,8 @@
       <c r="F797" t="s">
         <v>22</v>
       </c>
-      <c r="G797" t="s">
-        <v>427</v>
+      <c r="G797">
+        <v>269932208.605665</v>
       </c>
     </row>
     <row r="798" spans="1:7">
@@ -20612,8 +18821,8 @@
       <c r="F798" t="s">
         <v>23</v>
       </c>
-      <c r="G798" t="s">
-        <v>428</v>
+      <c r="G798">
+        <v>13629959.566434</v>
       </c>
     </row>
     <row r="799" spans="1:7">
@@ -20681,8 +18890,8 @@
       <c r="F801" t="s">
         <v>23</v>
       </c>
-      <c r="G801" t="s">
-        <v>429</v>
+      <c r="G801">
+        <v>4914472.877503001</v>
       </c>
     </row>
     <row r="802" spans="1:7">
@@ -20704,8 +18913,8 @@
       <c r="F802" t="s">
         <v>22</v>
       </c>
-      <c r="G802" t="s">
-        <v>430</v>
+      <c r="G802">
+        <v>111066849.967499</v>
       </c>
     </row>
     <row r="803" spans="1:7">
@@ -20727,8 +18936,8 @@
       <c r="F803" t="s">
         <v>23</v>
       </c>
-      <c r="G803" t="s">
-        <v>431</v>
+      <c r="G803">
+        <v>50008179.544303</v>
       </c>
     </row>
     <row r="804" spans="1:7">
@@ -20773,8 +18982,8 @@
       <c r="F805" t="s">
         <v>22</v>
       </c>
-      <c r="G805" t="s">
-        <v>432</v>
+      <c r="G805">
+        <v>271621899.4867649</v>
       </c>
     </row>
     <row r="806" spans="1:7">
@@ -20796,8 +19005,8 @@
       <c r="F806" t="s">
         <v>23</v>
       </c>
-      <c r="G806" t="s">
-        <v>433</v>
+      <c r="G806">
+        <v>13706443.29413</v>
       </c>
     </row>
     <row r="807" spans="1:7">
@@ -20865,8 +19074,8 @@
       <c r="F809" t="s">
         <v>23</v>
       </c>
-      <c r="G809" t="s">
-        <v>434</v>
+      <c r="G809">
+        <v>4902315.890346999</v>
       </c>
     </row>
     <row r="810" spans="1:7">
@@ -20888,8 +19097,8 @@
       <c r="F810" t="s">
         <v>22</v>
       </c>
-      <c r="G810" t="s">
-        <v>435</v>
+      <c r="G810">
+        <v>97957558.507147</v>
       </c>
     </row>
     <row r="811" spans="1:7">
@@ -20911,8 +19120,8 @@
       <c r="F811" t="s">
         <v>23</v>
       </c>
-      <c r="G811" t="s">
-        <v>436</v>
+      <c r="G811">
+        <v>47084648.281231</v>
       </c>
     </row>
     <row r="812" spans="1:7">
@@ -20957,8 +19166,8 @@
       <c r="F813" t="s">
         <v>22</v>
       </c>
-      <c r="G813" t="s">
-        <v>437</v>
+      <c r="G813">
+        <v>266053328.376771</v>
       </c>
     </row>
     <row r="814" spans="1:7">
@@ -20980,8 +19189,8 @@
       <c r="F814" t="s">
         <v>23</v>
       </c>
-      <c r="G814" t="s">
-        <v>438</v>
+      <c r="G814">
+        <v>13165105.434357</v>
       </c>
     </row>
     <row r="815" spans="1:7">
@@ -21049,8 +19258,8 @@
       <c r="F817" t="s">
         <v>23</v>
       </c>
-      <c r="G817" t="s">
-        <v>439</v>
+      <c r="G817">
+        <v>4701752.503163002</v>
       </c>
     </row>
     <row r="818" spans="1:7">
@@ -21072,8 +19281,8 @@
       <c r="F818" t="s">
         <v>22</v>
       </c>
-      <c r="G818" t="s">
-        <v>440</v>
+      <c r="G818">
+        <v>103297617.895721</v>
       </c>
     </row>
     <row r="819" spans="1:7">
@@ -21095,8 +19304,8 @@
       <c r="F819" t="s">
         <v>23</v>
       </c>
-      <c r="G819" t="s">
-        <v>441</v>
+      <c r="G819">
+        <v>49149480.083735</v>
       </c>
     </row>
     <row r="820" spans="1:7">
@@ -21141,8 +19350,8 @@
       <c r="F821" t="s">
         <v>22</v>
       </c>
-      <c r="G821" t="s">
-        <v>442</v>
+      <c r="G821">
+        <v>260708404.666854</v>
       </c>
     </row>
     <row r="822" spans="1:7">
@@ -21164,8 +19373,8 @@
       <c r="F822" t="s">
         <v>23</v>
       </c>
-      <c r="G822" t="s">
-        <v>443</v>
+      <c r="G822">
+        <v>13719454.306446</v>
       </c>
     </row>
     <row r="823" spans="1:7">
@@ -21233,8 +19442,8 @@
       <c r="F825" t="s">
         <v>23</v>
       </c>
-      <c r="G825" t="s">
-        <v>444</v>
+      <c r="G825">
+        <v>4954358.545561001</v>
       </c>
     </row>
     <row r="826" spans="1:7">
@@ -21256,8 +19465,8 @@
       <c r="F826" t="s">
         <v>22</v>
       </c>
-      <c r="G826" t="s">
-        <v>445</v>
+      <c r="G826">
+        <v>106372060.266841</v>
       </c>
     </row>
     <row r="827" spans="1:7">
@@ -21279,8 +19488,8 @@
       <c r="F827" t="s">
         <v>23</v>
       </c>
-      <c r="G827" t="s">
-        <v>446</v>
+      <c r="G827">
+        <v>50732184.415434</v>
       </c>
     </row>
     <row r="828" spans="1:7">
@@ -21325,8 +19534,8 @@
       <c r="F829" t="s">
         <v>22</v>
       </c>
-      <c r="G829" t="s">
-        <v>447</v>
+      <c r="G829">
+        <v>263714213.571573</v>
       </c>
     </row>
     <row r="830" spans="1:7">
@@ -21348,8 +19557,8 @@
       <c r="F830" t="s">
         <v>23</v>
       </c>
-      <c r="G830" t="s">
-        <v>448</v>
+      <c r="G830">
+        <v>13509236.779054</v>
       </c>
     </row>
     <row r="831" spans="1:7">
@@ -21417,8 +19626,8 @@
       <c r="F833" t="s">
         <v>23</v>
       </c>
-      <c r="G833" t="s">
-        <v>449</v>
+      <c r="G833">
+        <v>4793601.883384999</v>
       </c>
     </row>
     <row r="834" spans="1:7">
@@ -21440,8 +19649,8 @@
       <c r="F834" t="s">
         <v>22</v>
       </c>
-      <c r="G834" t="s">
-        <v>450</v>
+      <c r="G834">
+        <v>98150269.65551201</v>
       </c>
     </row>
     <row r="835" spans="1:7">
@@ -21463,8 +19672,8 @@
       <c r="F835" t="s">
         <v>23</v>
       </c>
-      <c r="G835" t="s">
-        <v>451</v>
+      <c r="G835">
+        <v>45793921.032745</v>
       </c>
     </row>
     <row r="836" spans="1:7">
@@ -21509,8 +19718,8 @@
       <c r="F837" t="s">
         <v>22</v>
       </c>
-      <c r="G837" t="s">
-        <v>452</v>
+      <c r="G837">
+        <v>267948741.948074</v>
       </c>
     </row>
     <row r="838" spans="1:7">
@@ -21532,8 +19741,8 @@
       <c r="F838" t="s">
         <v>23</v>
       </c>
-      <c r="G838" t="s">
-        <v>453</v>
+      <c r="G838">
+        <v>12996618.519058</v>
       </c>
     </row>
     <row r="839" spans="1:7">
@@ -21578,8 +19787,8 @@
       <c r="F840" t="s">
         <v>22</v>
       </c>
-      <c r="G840" t="s">
-        <v>454</v>
+      <c r="G840">
+        <v>26092845.49187599</v>
       </c>
     </row>
     <row r="841" spans="1:7">
@@ -21601,8 +19810,8 @@
       <c r="F841" t="s">
         <v>23</v>
       </c>
-      <c r="G841" t="s">
-        <v>455</v>
+      <c r="G841">
+        <v>4711466.498028998</v>
       </c>
     </row>
     <row r="842" spans="1:7">
@@ -21624,8 +19833,8 @@
       <c r="F842" t="s">
         <v>22</v>
       </c>
-      <c r="G842" t="s">
-        <v>456</v>
+      <c r="G842">
+        <v>104779776.641656</v>
       </c>
     </row>
     <row r="843" spans="1:7">
@@ -21647,8 +19856,8 @@
       <c r="F843" t="s">
         <v>23</v>
       </c>
-      <c r="G843" t="s">
-        <v>457</v>
+      <c r="G843">
+        <v>50359021.287609</v>
       </c>
     </row>
     <row r="844" spans="1:7">
@@ -21693,8 +19902,8 @@
       <c r="F845" t="s">
         <v>22</v>
       </c>
-      <c r="G845" t="s">
-        <v>458</v>
+      <c r="G845">
+        <v>280399170.776427</v>
       </c>
     </row>
     <row r="846" spans="1:7">
@@ -21716,8 +19925,8 @@
       <c r="F846" t="s">
         <v>23</v>
       </c>
-      <c r="G846" t="s">
-        <v>459</v>
+      <c r="G846">
+        <v>14101486.715232</v>
       </c>
     </row>
     <row r="847" spans="1:7">
@@ -21785,8 +19994,8 @@
       <c r="F849" t="s">
         <v>23</v>
       </c>
-      <c r="G849" t="s">
-        <v>460</v>
+      <c r="G849">
+        <v>5442295.261861999</v>
       </c>
     </row>
     <row r="850" spans="1:7">
@@ -21808,8 +20017,8 @@
       <c r="F850" t="s">
         <v>22</v>
       </c>
-      <c r="G850" t="s">
-        <v>461</v>
+      <c r="G850">
+        <v>102108657.287054</v>
       </c>
     </row>
     <row r="851" spans="1:7">
@@ -21831,8 +20040,8 @@
       <c r="F851" t="s">
         <v>23</v>
       </c>
-      <c r="G851" t="s">
-        <v>462</v>
+      <c r="G851">
+        <v>51136195.536684</v>
       </c>
     </row>
     <row r="852" spans="1:7">
@@ -21877,8 +20086,8 @@
       <c r="F853" t="s">
         <v>22</v>
       </c>
-      <c r="G853" t="s">
-        <v>463</v>
+      <c r="G853">
+        <v>268604845.007736</v>
       </c>
     </row>
     <row r="854" spans="1:7">
@@ -21900,8 +20109,8 @@
       <c r="F854" t="s">
         <v>23</v>
       </c>
-      <c r="G854" t="s">
-        <v>464</v>
+      <c r="G854">
+        <v>13541723.509358</v>
       </c>
     </row>
     <row r="855" spans="1:7">
@@ -21946,8 +20155,8 @@
       <c r="F856" t="s">
         <v>22</v>
       </c>
-      <c r="G856" t="s">
-        <v>465</v>
+      <c r="G856">
+        <v>25773173.779175</v>
       </c>
     </row>
     <row r="857" spans="1:7">
@@ -21969,8 +20178,8 @@
       <c r="F857" t="s">
         <v>23</v>
       </c>
-      <c r="G857" t="s">
-        <v>466</v>
+      <c r="G857">
+        <v>5064389.850295999</v>
       </c>
     </row>
     <row r="858" spans="1:7">
@@ -21992,8 +20201,8 @@
       <c r="F858" t="s">
         <v>22</v>
       </c>
-      <c r="G858" t="s">
-        <v>467</v>
+      <c r="G858">
+        <v>108063562.053736</v>
       </c>
     </row>
     <row r="859" spans="1:7">
@@ -22015,8 +20224,8 @@
       <c r="F859" t="s">
         <v>23</v>
       </c>
-      <c r="G859" t="s">
-        <v>468</v>
+      <c r="G859">
+        <v>54384733.78254</v>
       </c>
     </row>
     <row r="860" spans="1:7">
@@ -22061,8 +20270,8 @@
       <c r="F861" t="s">
         <v>22</v>
       </c>
-      <c r="G861" t="s">
-        <v>469</v>
+      <c r="G861">
+        <v>272612897.739855</v>
       </c>
     </row>
     <row r="862" spans="1:7">
@@ -22084,8 +20293,8 @@
       <c r="F862" t="s">
         <v>23</v>
       </c>
-      <c r="G862" t="s">
-        <v>470</v>
+      <c r="G862">
+        <v>13611889.84773</v>
       </c>
     </row>
     <row r="863" spans="1:7">
@@ -22153,8 +20362,8 @@
       <c r="F865" t="s">
         <v>23</v>
       </c>
-      <c r="G865" t="s">
-        <v>471</v>
+      <c r="G865">
+        <v>5262136.408532</v>
       </c>
     </row>
     <row r="866" spans="1:7">
@@ -22176,8 +20385,8 @@
       <c r="F866" t="s">
         <v>22</v>
       </c>
-      <c r="G866" t="s">
-        <v>472</v>
+      <c r="G866">
+        <v>106355362.600628</v>
       </c>
     </row>
     <row r="867" spans="1:7">
@@ -22199,8 +20408,8 @@
       <c r="F867" t="s">
         <v>23</v>
       </c>
-      <c r="G867" t="s">
-        <v>473</v>
+      <c r="G867">
+        <v>54837731.458239</v>
       </c>
     </row>
     <row r="868" spans="1:7">
@@ -22245,8 +20454,8 @@
       <c r="F869" t="s">
         <v>22</v>
       </c>
-      <c r="G869" t="s">
-        <v>474</v>
+      <c r="G869">
+        <v>266522254.807642</v>
       </c>
     </row>
     <row r="870" spans="1:7">
@@ -22268,8 +20477,8 @@
       <c r="F870" t="s">
         <v>23</v>
       </c>
-      <c r="G870" t="s">
-        <v>475</v>
+      <c r="G870">
+        <v>13685565.648496</v>
       </c>
     </row>
     <row r="871" spans="1:7">
@@ -22314,8 +20523,8 @@
       <c r="F872" t="s">
         <v>22</v>
       </c>
-      <c r="G872" t="s">
-        <v>476</v>
+      <c r="G872">
+        <v>25553259.872142</v>
       </c>
     </row>
     <row r="873" spans="1:7">
@@ -22337,8 +20546,8 @@
       <c r="F873" t="s">
         <v>23</v>
       </c>
-      <c r="G873" t="s">
-        <v>477</v>
+      <c r="G873">
+        <v>5436095.369589999</v>
       </c>
     </row>
     <row r="874" spans="1:7">
@@ -22360,8 +20569,8 @@
       <c r="F874" t="s">
         <v>22</v>
       </c>
-      <c r="G874" t="s">
-        <v>478</v>
+      <c r="G874">
+        <v>93083521.95172299</v>
       </c>
     </row>
     <row r="875" spans="1:7">
@@ -22383,8 +20592,8 @@
       <c r="F875" t="s">
         <v>23</v>
       </c>
-      <c r="G875" t="s">
-        <v>479</v>
+      <c r="G875">
+        <v>49591621.849603</v>
       </c>
     </row>
     <row r="876" spans="1:7">
@@ -22429,8 +20638,8 @@
       <c r="F877" t="s">
         <v>22</v>
       </c>
-      <c r="G877" t="s">
-        <v>480</v>
+      <c r="G877">
+        <v>244201899.3582651</v>
       </c>
     </row>
     <row r="878" spans="1:7">
@@ -22452,8 +20661,8 @@
       <c r="F878" t="s">
         <v>23</v>
       </c>
-      <c r="G878" t="s">
-        <v>481</v>
+      <c r="G878">
+        <v>13060952.088063</v>
       </c>
     </row>
     <row r="879" spans="1:7">
@@ -22498,8 +20707,8 @@
       <c r="F880" t="s">
         <v>22</v>
       </c>
-      <c r="G880" t="s">
-        <v>482</v>
+      <c r="G880">
+        <v>23331802.164581</v>
       </c>
     </row>
     <row r="881" spans="1:7">
@@ -22521,8 +20730,8 @@
       <c r="F881" t="s">
         <v>23</v>
       </c>
-      <c r="G881" t="s">
-        <v>483</v>
+      <c r="G881">
+        <v>5057432.431153</v>
       </c>
     </row>
     <row r="882" spans="1:7">
@@ -22544,8 +20753,8 @@
       <c r="F882" t="s">
         <v>22</v>
       </c>
-      <c r="G882" t="s">
-        <v>484</v>
+      <c r="G882">
+        <v>106318023.424512</v>
       </c>
     </row>
     <row r="883" spans="1:7">
@@ -22567,8 +20776,8 @@
       <c r="F883" t="s">
         <v>23</v>
       </c>
-      <c r="G883" t="s">
-        <v>485</v>
+      <c r="G883">
+        <v>55601945.508951</v>
       </c>
     </row>
     <row r="884" spans="1:7">
@@ -22613,8 +20822,8 @@
       <c r="F885" t="s">
         <v>22</v>
       </c>
-      <c r="G885" t="s">
-        <v>486</v>
+      <c r="G885">
+        <v>273451467.843904</v>
       </c>
     </row>
     <row r="886" spans="1:7">
@@ -22636,8 +20845,8 @@
       <c r="F886" t="s">
         <v>23</v>
       </c>
-      <c r="G886" t="s">
-        <v>487</v>
+      <c r="G886">
+        <v>14895743.15044399</v>
       </c>
     </row>
     <row r="887" spans="1:7">
@@ -22682,8 +20891,8 @@
       <c r="F888" t="s">
         <v>22</v>
       </c>
-      <c r="G888" t="s">
-        <v>488</v>
+      <c r="G888">
+        <v>26160381.070301</v>
       </c>
     </row>
     <row r="889" spans="1:7">
@@ -22705,8 +20914,8 @@
       <c r="F889" t="s">
         <v>23</v>
       </c>
-      <c r="G889" t="s">
-        <v>489</v>
+      <c r="G889">
+        <v>5751591.990746998</v>
       </c>
     </row>
     <row r="890" spans="1:7">
@@ -22728,8 +20937,8 @@
       <c r="F890" t="s">
         <v>22</v>
       </c>
-      <c r="G890" t="s">
-        <v>490</v>
+      <c r="G890">
+        <v>95309586.68012901</v>
       </c>
     </row>
     <row r="891" spans="1:7">
@@ -22751,8 +20960,8 @@
       <c r="F891" t="s">
         <v>23</v>
       </c>
-      <c r="G891" t="s">
-        <v>491</v>
+      <c r="G891">
+        <v>50482824.371943</v>
       </c>
     </row>
     <row r="892" spans="1:7">
@@ -22797,8 +21006,8 @@
       <c r="F893" t="s">
         <v>22</v>
       </c>
-      <c r="G893" t="s">
-        <v>492</v>
+      <c r="G893">
+        <v>266047947.31585</v>
       </c>
     </row>
     <row r="894" spans="1:7">
@@ -22820,8 +21029,8 @@
       <c r="F894" t="s">
         <v>23</v>
       </c>
-      <c r="G894" t="s">
-        <v>493</v>
+      <c r="G894">
+        <v>14501482.73221199</v>
       </c>
     </row>
     <row r="895" spans="1:7">
@@ -22866,8 +21075,8 @@
       <c r="F896" t="s">
         <v>22</v>
       </c>
-      <c r="G896" t="s">
-        <v>494</v>
+      <c r="G896">
+        <v>25541414.617618</v>
       </c>
     </row>
     <row r="897" spans="1:7">
@@ -22889,8 +21098,8 @@
       <c r="F897" t="s">
         <v>23</v>
       </c>
-      <c r="G897" t="s">
-        <v>495</v>
+      <c r="G897">
+        <v>5599054.916427</v>
       </c>
     </row>
     <row r="898" spans="1:7">
@@ -22912,8 +21121,8 @@
       <c r="F898" t="s">
         <v>22</v>
       </c>
-      <c r="G898" t="s">
-        <v>496</v>
+      <c r="G898">
+        <v>99384245.219871</v>
       </c>
     </row>
     <row r="899" spans="1:7">
@@ -22935,8 +21144,8 @@
       <c r="F899" t="s">
         <v>23</v>
       </c>
-      <c r="G899" t="s">
-        <v>497</v>
+      <c r="G899">
+        <v>52785907.405177</v>
       </c>
     </row>
     <row r="900" spans="1:7">
@@ -22981,8 +21190,8 @@
       <c r="F901" t="s">
         <v>22</v>
       </c>
-      <c r="G901" t="s">
-        <v>498</v>
+      <c r="G901">
+        <v>268807768.386123</v>
       </c>
     </row>
     <row r="902" spans="1:7">
@@ -23004,8 +21213,8 @@
       <c r="F902" t="s">
         <v>23</v>
       </c>
-      <c r="G902" t="s">
-        <v>499</v>
+      <c r="G902">
+        <v>15437326.822223</v>
       </c>
     </row>
     <row r="903" spans="1:7">
@@ -23050,8 +21259,8 @@
       <c r="F904" t="s">
         <v>22</v>
       </c>
-      <c r="G904" t="s">
-        <v>500</v>
+      <c r="G904">
+        <v>27165977.30544601</v>
       </c>
     </row>
     <row r="905" spans="1:7">
@@ -23073,8 +21282,8 @@
       <c r="F905" t="s">
         <v>23</v>
       </c>
-      <c r="G905" t="s">
-        <v>501</v>
+      <c r="G905">
+        <v>5790371.336121</v>
       </c>
     </row>
     <row r="906" spans="1:7">
@@ -23096,8 +21305,8 @@
       <c r="F906" t="s">
         <v>22</v>
       </c>
-      <c r="G906" t="s">
-        <v>502</v>
+      <c r="G906">
+        <v>90625884.358206</v>
       </c>
     </row>
     <row r="907" spans="1:7">
@@ -23119,8 +21328,8 @@
       <c r="F907" t="s">
         <v>23</v>
       </c>
-      <c r="G907" t="s">
-        <v>503</v>
+      <c r="G907">
+        <v>49430561.439025</v>
       </c>
     </row>
     <row r="908" spans="1:7">
@@ -23165,8 +21374,8 @@
       <c r="F909" t="s">
         <v>22</v>
       </c>
-      <c r="G909" t="s">
-        <v>504</v>
+      <c r="G909">
+        <v>263145185.873313</v>
       </c>
     </row>
     <row r="910" spans="1:7">
@@ -23188,8 +21397,8 @@
       <c r="F910" t="s">
         <v>23</v>
       </c>
-      <c r="G910" t="s">
-        <v>505</v>
+      <c r="G910">
+        <v>14322327.100593</v>
       </c>
     </row>
     <row r="911" spans="1:7">
@@ -23234,8 +21443,8 @@
       <c r="F912" t="s">
         <v>22</v>
       </c>
-      <c r="G912" t="s">
-        <v>506</v>
+      <c r="G912">
+        <v>26741100.873923</v>
       </c>
     </row>
     <row r="913" spans="1:7">
@@ -23257,8 +21466,8 @@
       <c r="F913" t="s">
         <v>23</v>
       </c>
-      <c r="G913" t="s">
-        <v>507</v>
+      <c r="G913">
+        <v>5911107.669241</v>
       </c>
     </row>
     <row r="914" spans="1:7">
@@ -23280,8 +21489,8 @@
       <c r="F914" t="s">
         <v>22</v>
       </c>
-      <c r="G914" t="s">
-        <v>508</v>
+      <c r="G914">
+        <v>97841805.082793</v>
       </c>
     </row>
     <row r="915" spans="1:7">
@@ -23303,8 +21512,8 @@
       <c r="F915" t="s">
         <v>23</v>
       </c>
-      <c r="G915" t="s">
-        <v>509</v>
+      <c r="G915">
+        <v>55000181.627144</v>
       </c>
     </row>
     <row r="916" spans="1:7">
@@ -23349,8 +21558,8 @@
       <c r="F917" t="s">
         <v>22</v>
       </c>
-      <c r="G917" t="s">
-        <v>510</v>
+      <c r="G917">
+        <v>271810474.621385</v>
       </c>
     </row>
     <row r="918" spans="1:7">
@@ -23372,8 +21581,8 @@
       <c r="F918" t="s">
         <v>23</v>
       </c>
-      <c r="G918" t="s">
-        <v>511</v>
+      <c r="G918">
+        <v>15142651.555004</v>
       </c>
     </row>
     <row r="919" spans="1:7">
@@ -23418,8 +21627,8 @@
       <c r="F920" t="s">
         <v>22</v>
       </c>
-      <c r="G920" t="s">
-        <v>512</v>
+      <c r="G920">
+        <v>27493689.09278601</v>
       </c>
     </row>
     <row r="921" spans="1:7">
@@ -23441,8 +21650,8 @@
       <c r="F921" t="s">
         <v>23</v>
       </c>
-      <c r="G921" t="s">
-        <v>513</v>
+      <c r="G921">
+        <v>6103275.511538</v>
       </c>
     </row>
     <row r="922" spans="1:7">
@@ -23464,8 +21673,8 @@
       <c r="F922" t="s">
         <v>22</v>
       </c>
-      <c r="G922" t="s">
-        <v>514</v>
+      <c r="G922">
+        <v>92781497.208713</v>
       </c>
     </row>
     <row r="923" spans="1:7">
@@ -23487,8 +21696,8 @@
       <c r="F923" t="s">
         <v>23</v>
       </c>
-      <c r="G923" t="s">
-        <v>515</v>
+      <c r="G923">
+        <v>53807479.356192</v>
       </c>
     </row>
     <row r="924" spans="1:7">
@@ -23533,8 +21742,8 @@
       <c r="F925" t="s">
         <v>22</v>
       </c>
-      <c r="G925" t="s">
-        <v>516</v>
+      <c r="G925">
+        <v>268673846.036517</v>
       </c>
     </row>
     <row r="926" spans="1:7">
@@ -23556,8 +21765,8 @@
       <c r="F926" t="s">
         <v>23</v>
       </c>
-      <c r="G926" t="s">
-        <v>517</v>
+      <c r="G926">
+        <v>15694856.781244</v>
       </c>
     </row>
     <row r="927" spans="1:7">
@@ -23602,8 +21811,8 @@
       <c r="F928" t="s">
         <v>22</v>
       </c>
-      <c r="G928" t="s">
-        <v>518</v>
+      <c r="G928">
+        <v>28141368.326411</v>
       </c>
     </row>
     <row r="929" spans="1:7">
@@ -23625,8 +21834,8 @@
       <c r="F929" t="s">
         <v>23</v>
       </c>
-      <c r="G929" t="s">
-        <v>519</v>
+      <c r="G929">
+        <v>6496754.194450001</v>
       </c>
     </row>
     <row r="930" spans="1:7">
@@ -23648,8 +21857,8 @@
       <c r="F930" t="s">
         <v>22</v>
       </c>
-      <c r="G930" t="s">
-        <v>520</v>
+      <c r="G930">
+        <v>88478295.73741101</v>
       </c>
     </row>
     <row r="931" spans="1:7">
@@ -23671,8 +21880,8 @@
       <c r="F931" t="s">
         <v>23</v>
       </c>
-      <c r="G931" t="s">
-        <v>521</v>
+      <c r="G931">
+        <v>51297752.842692</v>
       </c>
     </row>
     <row r="932" spans="1:7">
@@ -23717,8 +21926,8 @@
       <c r="F933" t="s">
         <v>22</v>
       </c>
-      <c r="G933" t="s">
-        <v>522</v>
+      <c r="G933">
+        <v>266432267.311543</v>
       </c>
     </row>
     <row r="934" spans="1:7">
@@ -23740,8 +21949,8 @@
       <c r="F934" t="s">
         <v>23</v>
       </c>
-      <c r="G934" t="s">
-        <v>523</v>
+      <c r="G934">
+        <v>15976014.719488</v>
       </c>
     </row>
     <row r="935" spans="1:7">
@@ -23786,8 +21995,8 @@
       <c r="F936" t="s">
         <v>22</v>
       </c>
-      <c r="G936" t="s">
-        <v>524</v>
+      <c r="G936">
+        <v>27330790.184973</v>
       </c>
     </row>
     <row r="937" spans="1:7">
@@ -23809,8 +22018,8 @@
       <c r="F937" t="s">
         <v>23</v>
       </c>
-      <c r="G937" t="s">
-        <v>525</v>
+      <c r="G937">
+        <v>6299539.348276</v>
       </c>
     </row>
     <row r="938" spans="1:7">
@@ -23832,8 +22041,8 @@
       <c r="F938" t="s">
         <v>22</v>
       </c>
-      <c r="G938" t="s">
-        <v>526</v>
+      <c r="G938">
+        <v>80697583.805904</v>
       </c>
     </row>
     <row r="939" spans="1:7">
@@ -23855,8 +22064,8 @@
       <c r="F939" t="s">
         <v>23</v>
       </c>
-      <c r="G939" t="s">
-        <v>527</v>
+      <c r="G939">
+        <v>46471684.946707</v>
       </c>
     </row>
     <row r="940" spans="1:7">
@@ -23901,8 +22110,8 @@
       <c r="F941" t="s">
         <v>22</v>
       </c>
-      <c r="G941" t="s">
-        <v>528</v>
+      <c r="G941">
+        <v>276007274.188928</v>
       </c>
     </row>
     <row r="942" spans="1:7">
@@ -23924,8 +22133,8 @@
       <c r="F942" t="s">
         <v>23</v>
       </c>
-      <c r="G942" t="s">
-        <v>529</v>
+      <c r="G942">
+        <v>16979223.17894701</v>
       </c>
     </row>
     <row r="943" spans="1:7">
@@ -23970,8 +22179,8 @@
       <c r="F944" t="s">
         <v>22</v>
       </c>
-      <c r="G944" t="s">
-        <v>530</v>
+      <c r="G944">
+        <v>28726064.535019</v>
       </c>
     </row>
     <row r="945" spans="1:7">
@@ -23993,8 +22202,8 @@
       <c r="F945" t="s">
         <v>23</v>
       </c>
-      <c r="G945" t="s">
-        <v>531</v>
+      <c r="G945">
+        <v>6654869.789462999</v>
       </c>
     </row>
     <row r="946" spans="1:7">
@@ -24016,8 +22225,8 @@
       <c r="F946" t="s">
         <v>22</v>
       </c>
-      <c r="G946" t="s">
-        <v>532</v>
+      <c r="G946">
+        <v>81864924.23924699</v>
       </c>
     </row>
     <row r="947" spans="1:7">
@@ -24039,8 +22248,8 @@
       <c r="F947" t="s">
         <v>23</v>
       </c>
-      <c r="G947" t="s">
-        <v>533</v>
+      <c r="G947">
+        <v>51449088.19862299</v>
       </c>
     </row>
     <row r="948" spans="1:7">
@@ -24085,8 +22294,8 @@
       <c r="F949" t="s">
         <v>22</v>
       </c>
-      <c r="G949" t="s">
-        <v>534</v>
+      <c r="G949">
+        <v>262655584.581943</v>
       </c>
     </row>
     <row r="950" spans="1:7">
@@ -24108,8 +22317,8 @@
       <c r="F950" t="s">
         <v>23</v>
       </c>
-      <c r="G950" t="s">
-        <v>535</v>
+      <c r="G950">
+        <v>16884118.901282</v>
       </c>
     </row>
     <row r="951" spans="1:7">
@@ -24154,8 +22363,8 @@
       <c r="F952" t="s">
         <v>22</v>
       </c>
-      <c r="G952" t="s">
-        <v>536</v>
+      <c r="G952">
+        <v>28786516.68679399</v>
       </c>
     </row>
     <row r="953" spans="1:7">
@@ -24177,8 +22386,8 @@
       <c r="F953" t="s">
         <v>23</v>
       </c>
-      <c r="G953" t="s">
-        <v>537</v>
+      <c r="G953">
+        <v>6601278.961361998</v>
       </c>
     </row>
     <row r="954" spans="1:7">
@@ -24200,8 +22409,8 @@
       <c r="F954" t="s">
         <v>22</v>
       </c>
-      <c r="G954" t="s">
-        <v>538</v>
+      <c r="G954">
+        <v>78555057.56544</v>
       </c>
     </row>
     <row r="955" spans="1:7">
@@ -24223,8 +22432,8 @@
       <c r="F955" t="s">
         <v>23</v>
       </c>
-      <c r="G955" t="s">
-        <v>539</v>
+      <c r="G955">
+        <v>49116024.213025</v>
       </c>
     </row>
     <row r="956" spans="1:7">
@@ -24269,8 +22478,8 @@
       <c r="F957" t="s">
         <v>22</v>
       </c>
-      <c r="G957" t="s">
-        <v>540</v>
+      <c r="G957">
+        <v>276427894.8634611</v>
       </c>
     </row>
     <row r="958" spans="1:7">
@@ -24292,8 +22501,8 @@
       <c r="F958" t="s">
         <v>23</v>
       </c>
-      <c r="G958" t="s">
-        <v>541</v>
+      <c r="G958">
+        <v>18009559.94226401</v>
       </c>
     </row>
     <row r="959" spans="1:7">
@@ -24338,8 +22547,8 @@
       <c r="F960" t="s">
         <v>22</v>
       </c>
-      <c r="G960" t="s">
-        <v>542</v>
+      <c r="G960">
+        <v>30552848.477795</v>
       </c>
     </row>
     <row r="961" spans="1:7">
@@ -24361,8 +22570,8 @@
       <c r="F961" t="s">
         <v>23</v>
       </c>
-      <c r="G961" t="s">
-        <v>543</v>
+      <c r="G961">
+        <v>6718240.988646998</v>
       </c>
     </row>
     <row r="962" spans="1:7">
@@ -24384,8 +22593,8 @@
       <c r="F962" t="s">
         <v>22</v>
       </c>
-      <c r="G962" t="s">
-        <v>544</v>
+      <c r="G962">
+        <v>79073890.931546</v>
       </c>
     </row>
     <row r="963" spans="1:7">
@@ -24407,8 +22616,8 @@
       <c r="F963" t="s">
         <v>23</v>
       </c>
-      <c r="G963" t="s">
-        <v>545</v>
+      <c r="G963">
+        <v>51242542.271568</v>
       </c>
     </row>
     <row r="964" spans="1:7">
@@ -24453,8 +22662,8 @@
       <c r="F965" t="s">
         <v>22</v>
       </c>
-      <c r="G965" t="s">
-        <v>546</v>
+      <c r="G965">
+        <v>273904759.95324</v>
       </c>
     </row>
     <row r="966" spans="1:7">
@@ -24476,8 +22685,8 @@
       <c r="F966" t="s">
         <v>23</v>
       </c>
-      <c r="G966" t="s">
-        <v>547</v>
+      <c r="G966">
+        <v>17332040.478999</v>
       </c>
     </row>
     <row r="967" spans="1:7">
@@ -24522,8 +22731,8 @@
       <c r="F968" t="s">
         <v>22</v>
       </c>
-      <c r="G968" t="s">
-        <v>548</v>
+      <c r="G968">
+        <v>30502434.27901701</v>
       </c>
     </row>
     <row r="969" spans="1:7">
@@ -24545,8 +22754,8 @@
       <c r="F969" t="s">
         <v>23</v>
       </c>
-      <c r="G969" t="s">
-        <v>549</v>
+      <c r="G969">
+        <v>6698849.76651</v>
       </c>
     </row>
     <row r="970" spans="1:7">
@@ -24568,8 +22777,8 @@
       <c r="F970" t="s">
         <v>22</v>
       </c>
-      <c r="G970" t="s">
-        <v>550</v>
+      <c r="G970">
+        <v>74987316.968264</v>
       </c>
     </row>
     <row r="971" spans="1:7">
@@ -24591,8 +22800,8 @@
       <c r="F971" t="s">
         <v>23</v>
       </c>
-      <c r="G971" t="s">
-        <v>551</v>
+      <c r="G971">
+        <v>48389237.830681</v>
       </c>
     </row>
     <row r="972" spans="1:7">
@@ -24637,8 +22846,8 @@
       <c r="F973" t="s">
         <v>22</v>
       </c>
-      <c r="G973" t="s">
-        <v>552</v>
+      <c r="G973">
+        <v>246488479.298614</v>
       </c>
     </row>
     <row r="974" spans="1:7">
@@ -24660,8 +22869,8 @@
       <c r="F974" t="s">
         <v>23</v>
       </c>
-      <c r="G974" t="s">
-        <v>553</v>
+      <c r="G974">
+        <v>16310090.98887099</v>
       </c>
     </row>
     <row r="975" spans="1:7">
@@ -24706,8 +22915,8 @@
       <c r="F976" t="s">
         <v>22</v>
       </c>
-      <c r="G976" t="s">
-        <v>554</v>
+      <c r="G976">
+        <v>27420007.697887</v>
       </c>
     </row>
     <row r="977" spans="1:7">
@@ -24729,8 +22938,8 @@
       <c r="F977" t="s">
         <v>23</v>
       </c>
-      <c r="G977" t="s">
-        <v>555</v>
+      <c r="G977">
+        <v>5889117.520060001</v>
       </c>
     </row>
     <row r="978" spans="1:7">
@@ -24752,8 +22961,8 @@
       <c r="F978" t="s">
         <v>22</v>
       </c>
-      <c r="G978" t="s">
-        <v>556</v>
+      <c r="G978">
+        <v>83560798.225293</v>
       </c>
     </row>
     <row r="979" spans="1:7">
@@ -24775,8 +22984,8 @@
       <c r="F979" t="s">
         <v>23</v>
       </c>
-      <c r="G979" t="s">
-        <v>557</v>
+      <c r="G979">
+        <v>52630981.390808</v>
       </c>
     </row>
     <row r="980" spans="1:7">
@@ -24821,8 +23030,8 @@
       <c r="F981" t="s">
         <v>22</v>
       </c>
-      <c r="G981" t="s">
-        <v>558</v>
+      <c r="G981">
+        <v>277278977.1017191</v>
       </c>
     </row>
     <row r="982" spans="1:7">
@@ -24844,8 +23053,8 @@
       <c r="F982" t="s">
         <v>23</v>
       </c>
-      <c r="G982" t="s">
-        <v>559</v>
+      <c r="G982">
+        <v>18334341.17126099</v>
       </c>
     </row>
     <row r="983" spans="1:7">
@@ -24890,8 +23099,8 @@
       <c r="F984" t="s">
         <v>22</v>
       </c>
-      <c r="G984" t="s">
-        <v>560</v>
+      <c r="G984">
+        <v>31291966.550535</v>
       </c>
     </row>
     <row r="985" spans="1:7">
@@ -24913,8 +23122,8 @@
       <c r="F985" t="s">
         <v>23</v>
       </c>
-      <c r="G985" t="s">
-        <v>561</v>
+      <c r="G985">
+        <v>6942466.099822001</v>
       </c>
     </row>
     <row r="986" spans="1:7">
@@ -24936,8 +23145,8 @@
       <c r="F986" t="s">
         <v>22</v>
       </c>
-      <c r="G986" t="s">
-        <v>562</v>
+      <c r="G986">
+        <v>76442713.546947</v>
       </c>
     </row>
     <row r="987" spans="1:7">
@@ -24959,8 +23168,8 @@
       <c r="F987" t="s">
         <v>23</v>
       </c>
-      <c r="G987" t="s">
-        <v>563</v>
+      <c r="G987">
+        <v>48561950.83246</v>
       </c>
     </row>
     <row r="988" spans="1:7">
@@ -25005,8 +23214,8 @@
       <c r="F989" t="s">
         <v>22</v>
       </c>
-      <c r="G989" t="s">
-        <v>564</v>
+      <c r="G989">
+        <v>267083979.613886</v>
       </c>
     </row>
     <row r="990" spans="1:7">
@@ -25028,8 +23237,8 @@
       <c r="F990" t="s">
         <v>23</v>
       </c>
-      <c r="G990" t="s">
-        <v>565</v>
+      <c r="G990">
+        <v>18525527.57149899</v>
       </c>
     </row>
     <row r="991" spans="1:7">
@@ -25074,8 +23283,8 @@
       <c r="F992" t="s">
         <v>22</v>
       </c>
-      <c r="G992" t="s">
-        <v>566</v>
+      <c r="G992">
+        <v>31009738.470843</v>
       </c>
     </row>
     <row r="993" spans="1:7">
@@ -25097,8 +23306,8 @@
       <c r="F993" t="s">
         <v>23</v>
       </c>
-      <c r="G993" t="s">
-        <v>567</v>
+      <c r="G993">
+        <v>7342771.240878002</v>
       </c>
     </row>
     <row r="994" spans="1:7">
@@ -25120,8 +23329,8 @@
       <c r="F994" t="s">
         <v>22</v>
       </c>
-      <c r="G994" t="s">
-        <v>568</v>
+      <c r="G994">
+        <v>78954120.26434401</v>
       </c>
     </row>
     <row r="995" spans="1:7">
@@ -25143,8 +23352,8 @@
       <c r="F995" t="s">
         <v>23</v>
       </c>
-      <c r="G995" t="s">
-        <v>569</v>
+      <c r="G995">
+        <v>48111670.98253</v>
       </c>
     </row>
     <row r="996" spans="1:7">
@@ -25189,8 +23398,8 @@
       <c r="F997" t="s">
         <v>22</v>
       </c>
-      <c r="G997" t="s">
-        <v>570</v>
+      <c r="G997">
+        <v>272482032.332956</v>
       </c>
     </row>
     <row r="998" spans="1:7">
@@ -25212,8 +23421,8 @@
       <c r="F998" t="s">
         <v>23</v>
       </c>
-      <c r="G998" t="s">
-        <v>571</v>
+      <c r="G998">
+        <v>18724947.80313201</v>
       </c>
     </row>
     <row r="999" spans="1:7">
@@ -25258,8 +23467,8 @@
       <c r="F1000" t="s">
         <v>22</v>
       </c>
-      <c r="G1000" t="s">
-        <v>572</v>
+      <c r="G1000">
+        <v>31245170.302455</v>
       </c>
     </row>
     <row r="1001" spans="1:7">
@@ -25281,8 +23490,8 @@
       <c r="F1001" t="s">
         <v>23</v>
       </c>
-      <c r="G1001" t="s">
-        <v>573</v>
+      <c r="G1001">
+        <v>7516093.238932001</v>
       </c>
     </row>
     <row r="1002" spans="1:7">
@@ -25304,8 +23513,8 @@
       <c r="F1002" t="s">
         <v>22</v>
       </c>
-      <c r="G1002" t="s">
-        <v>574</v>
+      <c r="G1002">
+        <v>79174604.848094</v>
       </c>
     </row>
     <row r="1003" spans="1:7">
@@ -25327,8 +23536,8 @@
       <c r="F1003" t="s">
         <v>23</v>
       </c>
-      <c r="G1003" t="s">
-        <v>575</v>
+      <c r="G1003">
+        <v>50369169.670938</v>
       </c>
     </row>
     <row r="1004" spans="1:7">
@@ -25373,8 +23582,8 @@
       <c r="F1005" t="s">
         <v>22</v>
       </c>
-      <c r="G1005" t="s">
-        <v>576</v>
+      <c r="G1005">
+        <v>260145547.571373</v>
       </c>
     </row>
     <row r="1006" spans="1:7">
@@ -25396,8 +23605,8 @@
       <c r="F1006" t="s">
         <v>23</v>
       </c>
-      <c r="G1006" t="s">
-        <v>577</v>
+      <c r="G1006">
+        <v>17526673.35457</v>
       </c>
     </row>
     <row r="1007" spans="1:7">
@@ -25442,8 +23651,8 @@
       <c r="F1008" t="s">
         <v>22</v>
       </c>
-      <c r="G1008" t="s">
-        <v>578</v>
+      <c r="G1008">
+        <v>30228752.62355899</v>
       </c>
     </row>
     <row r="1009" spans="1:7">
@@ -25465,8 +23674,8 @@
       <c r="F1009" t="s">
         <v>23</v>
       </c>
-      <c r="G1009" t="s">
-        <v>579</v>
+      <c r="G1009">
+        <v>7131539.214902999</v>
       </c>
     </row>
     <row r="1010" spans="1:7">
@@ -25488,8 +23697,8 @@
       <c r="F1010" t="s">
         <v>22</v>
       </c>
-      <c r="G1010" t="s">
-        <v>580</v>
+      <c r="G1010">
+        <v>92179309.676162</v>
       </c>
     </row>
     <row r="1011" spans="1:7">
@@ -25511,8 +23720,8 @@
       <c r="F1011" t="s">
         <v>23</v>
       </c>
-      <c r="G1011" t="s">
-        <v>581</v>
+      <c r="G1011">
+        <v>58349543.690084</v>
       </c>
     </row>
     <row r="1012" spans="1:7">
@@ -25557,8 +23766,8 @@
       <c r="F1013" t="s">
         <v>22</v>
       </c>
-      <c r="G1013" t="s">
-        <v>582</v>
+      <c r="G1013">
+        <v>272382745.6681309</v>
       </c>
     </row>
     <row r="1014" spans="1:7">
@@ -25580,8 +23789,8 @@
       <c r="F1014" t="s">
         <v>23</v>
       </c>
-      <c r="G1014" t="s">
-        <v>583</v>
+      <c r="G1014">
+        <v>19083466.419619</v>
       </c>
     </row>
     <row r="1015" spans="1:7">
@@ -25626,8 +23835,8 @@
       <c r="F1016" t="s">
         <v>22</v>
       </c>
-      <c r="G1016" t="s">
-        <v>584</v>
+      <c r="G1016">
+        <v>30713072.087535</v>
       </c>
     </row>
     <row r="1017" spans="1:7">
@@ -25649,8 +23858,8 @@
       <c r="F1017" t="s">
         <v>23</v>
       </c>
-      <c r="G1017" t="s">
-        <v>585</v>
+      <c r="G1017">
+        <v>7175219.593110999</v>
       </c>
     </row>
     <row r="1018" spans="1:7">
@@ -25672,8 +23881,8 @@
       <c r="F1018" t="s">
         <v>22</v>
       </c>
-      <c r="G1018" t="s">
-        <v>586</v>
+      <c r="G1018">
+        <v>98079413.06244101</v>
       </c>
     </row>
     <row r="1019" spans="1:7">
@@ -25695,8 +23904,8 @@
       <c r="F1019" t="s">
         <v>23</v>
       </c>
-      <c r="G1019" t="s">
-        <v>587</v>
+      <c r="G1019">
+        <v>61083902.245314</v>
       </c>
     </row>
     <row r="1020" spans="1:7">
@@ -25741,8 +23950,8 @@
       <c r="F1021" t="s">
         <v>22</v>
       </c>
-      <c r="G1021" t="s">
-        <v>588</v>
+      <c r="G1021">
+        <v>272485633.4810771</v>
       </c>
     </row>
     <row r="1022" spans="1:7">
@@ -25764,8 +23973,8 @@
       <c r="F1022" t="s">
         <v>23</v>
       </c>
-      <c r="G1022" t="s">
-        <v>589</v>
+      <c r="G1022">
+        <v>20276543.324903</v>
       </c>
     </row>
     <row r="1023" spans="1:7">
@@ -25810,8 +24019,8 @@
       <c r="F1024" t="s">
         <v>22</v>
       </c>
-      <c r="G1024" t="s">
-        <v>590</v>
+      <c r="G1024">
+        <v>31235120.325867</v>
       </c>
     </row>
     <row r="1025" spans="1:7">
@@ -25833,8 +24042,8 @@
       <c r="F1025" t="s">
         <v>23</v>
       </c>
-      <c r="G1025" t="s">
-        <v>591</v>
+      <c r="G1025">
+        <v>7364544.760713</v>
       </c>
     </row>
     <row r="1026" spans="1:7">
@@ -25856,8 +24065,8 @@
       <c r="F1026" t="s">
         <v>22</v>
       </c>
-      <c r="G1026" t="s">
-        <v>592</v>
+      <c r="G1026">
+        <v>88561291.43800201</v>
       </c>
     </row>
     <row r="1027" spans="1:7">
@@ -25879,8 +24088,8 @@
       <c r="F1027" t="s">
         <v>23</v>
       </c>
-      <c r="G1027" t="s">
-        <v>593</v>
+      <c r="G1027">
+        <v>54371121.82786</v>
       </c>
     </row>
     <row r="1028" spans="1:7">
@@ -25925,8 +24134,8 @@
       <c r="F1029" t="s">
         <v>22</v>
       </c>
-      <c r="G1029" t="s">
-        <v>594</v>
+      <c r="G1029">
+        <v>264395929.955298</v>
       </c>
     </row>
     <row r="1030" spans="1:7">
@@ -25948,8 +24157,8 @@
       <c r="F1030" t="s">
         <v>23</v>
       </c>
-      <c r="G1030" t="s">
-        <v>595</v>
+      <c r="G1030">
+        <v>20122692.456507</v>
       </c>
     </row>
     <row r="1031" spans="1:7">
@@ -25994,8 +24203,8 @@
       <c r="F1032" t="s">
         <v>22</v>
       </c>
-      <c r="G1032" t="s">
-        <v>596</v>
+      <c r="G1032">
+        <v>30312982.814786</v>
       </c>
     </row>
     <row r="1033" spans="1:7">
@@ -26017,8 +24226,8 @@
       <c r="F1033" t="s">
         <v>23</v>
       </c>
-      <c r="G1033" t="s">
-        <v>597</v>
+      <c r="G1033">
+        <v>7010677.702240999</v>
       </c>
     </row>
     <row r="1034" spans="1:7">
@@ -26040,8 +24249,8 @@
       <c r="F1034" t="s">
         <v>22</v>
       </c>
-      <c r="G1034" t="s">
-        <v>598</v>
+      <c r="G1034">
+        <v>86432047.07468501</v>
       </c>
     </row>
     <row r="1035" spans="1:7">
@@ -26063,8 +24272,8 @@
       <c r="F1035" t="s">
         <v>23</v>
       </c>
-      <c r="G1035" t="s">
-        <v>599</v>
+      <c r="G1035">
+        <v>54676145.012908</v>
       </c>
     </row>
     <row r="1036" spans="1:7">
@@ -26109,8 +24318,8 @@
       <c r="F1037" t="s">
         <v>22</v>
       </c>
-      <c r="G1037" t="s">
-        <v>600</v>
+      <c r="G1037">
+        <v>279762889.831574</v>
       </c>
     </row>
     <row r="1038" spans="1:7">
@@ -26132,8 +24341,8 @@
       <c r="F1038" t="s">
         <v>23</v>
       </c>
-      <c r="G1038" t="s">
-        <v>601</v>
+      <c r="G1038">
+        <v>21238372.662526</v>
       </c>
     </row>
     <row r="1039" spans="1:7">
@@ -26178,8 +24387,8 @@
       <c r="F1040" t="s">
         <v>22</v>
       </c>
-      <c r="G1040" t="s">
-        <v>602</v>
+      <c r="G1040">
+        <v>30929101.054864</v>
       </c>
     </row>
     <row r="1041" spans="1:7">
@@ -26201,8 +24410,8 @@
       <c r="F1041" t="s">
         <v>23</v>
       </c>
-      <c r="G1041" t="s">
-        <v>603</v>
+      <c r="G1041">
+        <v>7165973.988358001</v>
       </c>
     </row>
     <row r="1042" spans="1:7">
@@ -26224,8 +24433,8 @@
       <c r="F1042" t="s">
         <v>22</v>
       </c>
-      <c r="G1042" t="s">
-        <v>604</v>
+      <c r="G1042">
+        <v>90525909.13638499</v>
       </c>
     </row>
     <row r="1043" spans="1:7">
@@ -26247,8 +24456,8 @@
       <c r="F1043" t="s">
         <v>23</v>
       </c>
-      <c r="G1043" t="s">
-        <v>605</v>
+      <c r="G1043">
+        <v>58950492.995723</v>
       </c>
     </row>
     <row r="1044" spans="1:7">
@@ -26293,8 +24502,8 @@
       <c r="F1045" t="s">
         <v>22</v>
       </c>
-      <c r="G1045" t="s">
-        <v>606</v>
+      <c r="G1045">
+        <v>261731081.021739</v>
       </c>
     </row>
     <row r="1046" spans="1:7">
@@ -26316,8 +24525,8 @@
       <c r="F1046" t="s">
         <v>23</v>
       </c>
-      <c r="G1046" t="s">
-        <v>607</v>
+      <c r="G1046">
+        <v>20275969.926453</v>
       </c>
     </row>
     <row r="1047" spans="1:7">
@@ -26362,8 +24571,8 @@
       <c r="F1048" t="s">
         <v>22</v>
       </c>
-      <c r="G1048" t="s">
-        <v>608</v>
+      <c r="G1048">
+        <v>29468217.474301</v>
       </c>
     </row>
     <row r="1049" spans="1:7">
@@ -26385,8 +24594,8 @@
       <c r="F1049" t="s">
         <v>23</v>
       </c>
-      <c r="G1049" t="s">
-        <v>609</v>
+      <c r="G1049">
+        <v>7067730.533626</v>
       </c>
     </row>
     <row r="1050" spans="1:7">
@@ -26408,8 +24617,8 @@
       <c r="F1050" t="s">
         <v>22</v>
       </c>
-      <c r="G1050" t="s">
-        <v>610</v>
+      <c r="G1050">
+        <v>92316866.490468</v>
       </c>
     </row>
     <row r="1051" spans="1:7">
@@ -26431,8 +24640,8 @@
       <c r="F1051" t="s">
         <v>23</v>
       </c>
-      <c r="G1051" t="s">
-        <v>611</v>
+      <c r="G1051">
+        <v>59997058.747071</v>
       </c>
     </row>
     <row r="1052" spans="1:7">
@@ -26477,8 +24686,8 @@
       <c r="F1053" t="s">
         <v>22</v>
       </c>
-      <c r="G1053" t="s">
-        <v>612</v>
+      <c r="G1053">
+        <v>270747985.803244</v>
       </c>
     </row>
     <row r="1054" spans="1:7">
@@ -26500,8 +24709,8 @@
       <c r="F1054" t="s">
         <v>23</v>
       </c>
-      <c r="G1054" t="s">
-        <v>613</v>
+      <c r="G1054">
+        <v>21110763.264313</v>
       </c>
     </row>
     <row r="1055" spans="1:7">
@@ -26546,8 +24755,8 @@
       <c r="F1056" t="s">
         <v>22</v>
       </c>
-      <c r="G1056" t="s">
-        <v>614</v>
+      <c r="G1056">
+        <v>29966787.796522</v>
       </c>
     </row>
     <row r="1057" spans="1:7">
@@ -26569,8 +24778,8 @@
       <c r="F1057" t="s">
         <v>23</v>
       </c>
-      <c r="G1057" t="s">
-        <v>615</v>
+      <c r="G1057">
+        <v>6999706.813762</v>
       </c>
     </row>
     <row r="1058" spans="1:7">
@@ -26592,8 +24801,8 @@
       <c r="F1058" t="s">
         <v>22</v>
       </c>
-      <c r="G1058" t="s">
-        <v>616</v>
+      <c r="G1058">
+        <v>94214940.07654101</v>
       </c>
     </row>
     <row r="1059" spans="1:7">
@@ -26615,8 +24824,8 @@
       <c r="F1059" t="s">
         <v>23</v>
       </c>
-      <c r="G1059" t="s">
-        <v>617</v>
+      <c r="G1059">
+        <v>59848630.918494</v>
       </c>
     </row>
     <row r="1060" spans="1:7">
@@ -26661,8 +24870,8 @@
       <c r="F1061" t="s">
         <v>22</v>
       </c>
-      <c r="G1061" t="s">
-        <v>618</v>
+      <c r="G1061">
+        <v>267802180.611995</v>
       </c>
     </row>
     <row r="1062" spans="1:7">
@@ -26684,8 +24893,8 @@
       <c r="F1062" t="s">
         <v>23</v>
       </c>
-      <c r="G1062" t="s">
-        <v>619</v>
+      <c r="G1062">
+        <v>21146949.68039799</v>
       </c>
     </row>
     <row r="1063" spans="1:7">
@@ -26730,8 +24939,8 @@
       <c r="F1064" t="s">
         <v>22</v>
       </c>
-      <c r="G1064" t="s">
-        <v>620</v>
+      <c r="G1064">
+        <v>28888398.07279299</v>
       </c>
     </row>
     <row r="1065" spans="1:7">
@@ -26753,8 +24962,8 @@
       <c r="F1065" t="s">
         <v>23</v>
       </c>
-      <c r="G1065" t="s">
-        <v>621</v>
+      <c r="G1065">
+        <v>6725389.159246</v>
       </c>
     </row>
     <row r="1066" spans="1:7" s="2" customFormat="1">
